--- a/src/space-miner/SpaceMiner.xlsx
+++ b/src/space-miner/SpaceMiner.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RiverElder\Desktop\Diese ist ein Folder\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Projects\WebProjects\river-minigames\src\space-miner\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F19D45ED-E9D8-4C6A-A293-2B987C3BC61D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CE86E0D-1446-4139-942C-1CFD693AAFE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3435" yWindow="3645" windowWidth="28800" windowHeight="15435" activeTab="3" xr2:uid="{0477F18E-D85D-49BB-A7B7-1C00092F0BA4}"/>
+    <workbookView xWindow="5070" yWindow="2580" windowWidth="28800" windowHeight="15435" activeTab="4" xr2:uid="{0477F18E-D85D-49BB-A7B7-1C00092F0BA4}"/>
   </bookViews>
   <sheets>
     <sheet name="资源" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="99">
   <si>
     <t xml:space="preserve">资源类型 </t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -349,7 +349,91 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>可能会法相一些事件对游戏进程产生影响，比如：资源价格的波动、技术价格的波动、某种技术被禁止使用，某种装置被禁止制造</t>
+    <t>价格</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>预计每天开采价值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>N/A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>等级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>II</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>尺寸：100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>尺寸：300</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>尺寸：5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>III</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黑洞压缩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>尺寸：50，容量： 100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>尺寸：90，容量： 300</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>尺寸：50，容量： 50000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>尺寸：150，容量： 800</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>尺寸：50，容量： 8000000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>尺寸：100，挖掘等级：0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>尺寸：100，挖掘等级：1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>尺寸：100，挖掘等级：2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可能会发生一些事件对游戏进程产生影响，比如：资源价格的波动、技术价格的波动、某种技术被禁止使用，某种装置被禁止制造</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -396,12 +480,15 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -717,38 +804,43 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4912986-EB11-4507-BDE3-909A68071087}">
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView zoomScale="250" zoomScaleNormal="250" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="4" max="4" width="5" customWidth="1"/>
+    <col min="3" max="3" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.875" customWidth="1"/>
+    <col min="5" max="5" width="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+    <row r="1" spans="1:7" s="2" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" s="2" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -756,19 +848,22 @@
         <v>0.3</v>
       </c>
       <c r="C2">
-        <v>1000</v>
-      </c>
-      <c r="D2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2">
+        <v>100</v>
+      </c>
+      <c r="E2" t="s">
         <v>12</v>
       </c>
-      <c r="E2">
+      <c r="F2">
         <v>0</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -776,19 +871,22 @@
         <v>0.2</v>
       </c>
       <c r="C3">
-        <v>2000</v>
-      </c>
-      <c r="D3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D3">
+        <v>1500</v>
+      </c>
+      <c r="E3" t="s">
         <v>13</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>1</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -796,19 +894,22 @@
         <v>0.1</v>
       </c>
       <c r="C4">
-        <v>5000</v>
-      </c>
-      <c r="D4" t="s">
+        <v>128</v>
+      </c>
+      <c r="D4">
+        <v>4000</v>
+      </c>
+      <c r="E4" t="s">
         <v>13</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <v>3</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -816,19 +917,22 @@
         <v>0.4</v>
       </c>
       <c r="C5">
-        <v>3000</v>
-      </c>
-      <c r="D5" t="s">
+        <v>110</v>
+      </c>
+      <c r="D5">
+        <v>5000</v>
+      </c>
+      <c r="E5" t="s">
         <v>13</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <v>3</v>
       </c>
-      <c r="F5" t="s">
+      <c r="G5" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -836,39 +940,46 @@
         <v>0.7</v>
       </c>
       <c r="C6">
+        <v>800</v>
+      </c>
+      <c r="D6">
         <v>80000</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
         <v>14</v>
       </c>
-      <c r="E6">
+      <c r="F6">
         <v>2</v>
       </c>
-      <c r="F6" t="s">
+      <c r="G6" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="1">
-        <v>0</v>
+      <c r="B7" s="1" t="s">
+        <v>79</v>
       </c>
       <c r="C7">
-        <v>400000</v>
-      </c>
-      <c r="D7" t="s">
+        <f>400*10000000/1000000</f>
+        <v>4000</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="E7" t="s">
         <v>14</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>2</v>
       </c>
-      <c r="F7" t="s">
+      <c r="G7" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -876,19 +987,23 @@
         <v>0.06</v>
       </c>
       <c r="C8">
-        <v>5000000</v>
-      </c>
-      <c r="D8" t="s">
+        <f>10000*10000000/1000000</f>
+        <v>100000</v>
+      </c>
+      <c r="D8">
+        <v>1000000</v>
+      </c>
+      <c r="E8" t="s">
         <v>14</v>
       </c>
-      <c r="E8">
+      <c r="F8">
         <v>5</v>
       </c>
-      <c r="F8" t="s">
+      <c r="G8" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -896,19 +1011,22 @@
         <v>0.3</v>
       </c>
       <c r="C9">
-        <v>2500</v>
-      </c>
-      <c r="D9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9">
+        <v>300</v>
+      </c>
+      <c r="E9" t="s">
         <v>12</v>
       </c>
-      <c r="E9">
+      <c r="F9">
         <v>1</v>
       </c>
-      <c r="F9" t="s">
+      <c r="G9" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>16</v>
       </c>
@@ -918,13 +1036,16 @@
       <c r="C10">
         <v>5000</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D10">
+        <v>65000000</v>
+      </c>
+      <c r="E10" t="s">
         <v>15</v>
       </c>
-      <c r="E10">
+      <c r="F10">
         <v>1</v>
       </c>
-      <c r="F10" t="s">
+      <c r="G10" t="s">
         <v>22</v>
       </c>
     </row>
@@ -1019,82 +1140,108 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8AEC6316-682C-4153-AE4F-FC6570DFFE09}">
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="9.875" customWidth="1"/>
+    <col min="2" max="2" width="36.75" customWidth="1"/>
+    <col min="3" max="3" width="10.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>23</v>
       </c>
       <c r="B1" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>20</v>
       </c>
       <c r="B2" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C2">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>22</v>
       </c>
       <c r="B3" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C3">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>35</v>
       </c>
       <c r="B4" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C4">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>36</v>
       </c>
       <c r="B5" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C5">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>27</v>
       </c>
       <c r="B6" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C6">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>31</v>
       </c>
       <c r="B7" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C7">
+        <v>3000000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>32</v>
       </c>
       <c r="B8" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C8">
+        <v>12000000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>57</v>
       </c>
@@ -1110,70 +1257,186 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F49F806-BAE6-4FC0-B210-81199394050F}">
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:F15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="18.75" customWidth="1"/>
+    <col min="2" max="2" width="26.75" style="2" customWidth="1"/>
+    <col min="3" max="3" width="9.625" customWidth="1"/>
+    <col min="4" max="4" width="23.375" customWidth="1"/>
+    <col min="5" max="5" width="13.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>46</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D1" t="s">
+        <v>83</v>
+      </c>
+      <c r="E1" t="s">
+        <v>86</v>
+      </c>
+      <c r="F1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>55</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="2" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+      <c r="C2" t="s">
+        <v>81</v>
+      </c>
+      <c r="D2" t="s">
+        <v>84</v>
+      </c>
+      <c r="F2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C3" t="s">
+        <v>82</v>
+      </c>
+      <c r="D3" t="s">
+        <v>85</v>
+      </c>
+      <c r="F3">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
         <v>47</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B4" s="2" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+      <c r="C4" t="s">
+        <v>81</v>
+      </c>
+      <c r="D4" t="s">
+        <v>87</v>
+      </c>
+      <c r="F4">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C5" t="s">
+        <v>82</v>
+      </c>
+      <c r="D5" t="s">
+        <v>87</v>
+      </c>
+      <c r="F5">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="28.5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
         <v>49</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B6" s="2" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
         <v>51</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B7" s="2" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
+      <c r="C7" t="s">
+        <v>81</v>
+      </c>
+      <c r="D7" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C8" t="s">
+        <v>82</v>
+      </c>
+      <c r="D8" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C9" t="s">
+        <v>88</v>
+      </c>
+      <c r="D9" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C10" t="s">
+        <v>57</v>
+      </c>
+      <c r="D10" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C11" t="s">
+        <v>89</v>
+      </c>
+      <c r="D11" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
         <v>53</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B12" s="2" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
+      <c r="C12" t="s">
+        <v>81</v>
+      </c>
+      <c r="D12" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C13" t="s">
+        <v>82</v>
+      </c>
+      <c r="D13" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C14" t="s">
+        <v>88</v>
+      </c>
+      <c r="D14" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="57" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
         <v>59</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B15" s="2" t="s">
         <v>60</v>
       </c>
     </row>
@@ -1187,8 +1450,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB6EE9DC-92B0-4350-89A0-256D659583DB}">
   <dimension ref="A2:B15"/>
   <sheetViews>
-    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1272,7 +1535,7 @@
         <v>76</v>
       </c>
       <c r="B15" t="s">
-        <v>77</v>
+        <v>98</v>
       </c>
     </row>
   </sheetData>

--- a/src/space-miner/SpaceMiner.xlsx
+++ b/src/space-miner/SpaceMiner.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Projects\WebProjects\river-minigames\src\space-miner\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CE86E0D-1446-4139-942C-1CFD693AAFE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B692AB6A-67D9-46DA-AFCF-81B8B211B4CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5070" yWindow="2580" windowWidth="28800" windowHeight="15435" activeTab="4" xr2:uid="{0477F18E-D85D-49BB-A7B7-1C00092F0BA4}"/>
+    <workbookView xWindow="19200" yWindow="0" windowWidth="19200" windowHeight="21000" xr2:uid="{0477F18E-D85D-49BB-A7B7-1C00092F0BA4}"/>
   </bookViews>
   <sheets>
     <sheet name="资源" sheetId="1" r:id="rId1"/>
@@ -806,8 +806,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4912986-EB11-4507-BDE3-909A68071087}">
   <dimension ref="A1:G10"/>
   <sheetViews>
-    <sheetView zoomScale="250" zoomScaleNormal="250" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" zoomScale="250" zoomScaleNormal="250" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -937,7 +937,7 @@
         <v>6</v>
       </c>
       <c r="B6" s="1">
-        <v>0.7</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="C6">
         <v>800</v>
@@ -1450,7 +1450,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB6EE9DC-92B0-4350-89A0-256D659583DB}">
   <dimension ref="A2:B15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
       <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>

--- a/src/space-miner/SpaceMiner.xlsx
+++ b/src/space-miner/SpaceMiner.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Projects\WebProjects\river-minigames\src\space-miner\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B692AB6A-67D9-46DA-AFCF-81B8B211B4CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AA6BFDB-3F14-4AA2-90E5-DD90968B97E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19200" yWindow="0" windowWidth="19200" windowHeight="21000" xr2:uid="{0477F18E-D85D-49BB-A7B7-1C00092F0BA4}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="5" xr2:uid="{0477F18E-D85D-49BB-A7B7-1C00092F0BA4}"/>
   </bookViews>
   <sheets>
     <sheet name="资源" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="技术" sheetId="2" r:id="rId3"/>
     <sheet name="采矿姬" sheetId="4" r:id="rId4"/>
     <sheet name="介绍" sheetId="5" r:id="rId5"/>
+    <sheet name="星球类型" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="105">
   <si>
     <t xml:space="preserve">资源类型 </t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -434,6 +435,30 @@
   </si>
   <si>
     <t>可能会发生一些事件对游戏进程产生影响，比如：资源价格的波动、技术价格的波动、某种技术被禁止使用，某种装置被禁止制造</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>类地行星</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>外层有水、木材、生物质；地心有地心熔浆；地幔有各种矿物</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>恒星</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>整个星球只有资源等离子熔浆；温度极高</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>气态行星</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>外层有气体；中层有液态甲烷海；地心有地心熔浆</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -806,7 +831,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4912986-EB11-4507-BDE3-909A68071087}">
   <dimension ref="A1:G10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="250" zoomScaleNormal="250" workbookViewId="0">
+    <sheetView zoomScale="250" zoomScaleNormal="250" workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
@@ -1542,4 +1567,47 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C64231FC-1A83-4CD7-8768-EAB4BD579858}">
+  <dimension ref="A2:B4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="340" zoomScaleNormal="340" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="61.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>99</v>
+      </c>
+      <c r="B2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>101</v>
+      </c>
+      <c r="B3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>103</v>
+      </c>
+      <c r="B4" t="s">
+        <v>104</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/src/space-miner/SpaceMiner.xlsx
+++ b/src/space-miner/SpaceMiner.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Projects\WebProjects\river-minigames\src\space-miner\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AA6BFDB-3F14-4AA2-90E5-DD90968B97E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C94DF348-8B75-47AF-83F2-ACC9EB325360}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="5" xr2:uid="{0477F18E-D85D-49BB-A7B7-1C00092F0BA4}"/>
   </bookViews>
@@ -458,7 +458,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>外层有气体；中层有液态甲烷海；地心有地心熔浆</t>
+    <t>外层有气态氢；中层有液态甲烷海或者金属氢；地心有地心熔浆</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1574,7 +1574,7 @@
   <dimension ref="A2:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="340" zoomScaleNormal="340" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/src/space-miner/SpaceMiner.xlsx
+++ b/src/space-miner/SpaceMiner.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Projects\WebProjects\river-minigames\src\space-miner\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C94DF348-8B75-47AF-83F2-ACC9EB325360}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A135CBD1-3673-4049-878A-138241F79404}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="5" xr2:uid="{0477F18E-D85D-49BB-A7B7-1C00092F0BA4}"/>
   </bookViews>
@@ -1574,7 +1574,7 @@
   <dimension ref="A2:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="340" zoomScaleNormal="340" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/src/space-miner/SpaceMiner.xlsx
+++ b/src/space-miner/SpaceMiner.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Projects\WebProjects\river-minigames\src\space-miner\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\WebProjects\river-minigames\src\space-miner\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A135CBD1-3673-4049-878A-138241F79404}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{009E2E8D-E572-4626-AA07-EB5A34DB1213}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="5" xr2:uid="{0477F18E-D85D-49BB-A7B7-1C00092F0BA4}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{0477F18E-D85D-49BB-A7B7-1C00092F0BA4}"/>
   </bookViews>
   <sheets>
     <sheet name="资源" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="171">
   <si>
     <t xml:space="preserve">资源类型 </t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -55,14 +55,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>铁矿</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>煤矿</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>铜矿</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -75,10 +67,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>黄金</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>稀有度</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -258,18 +246,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>需要不同的采集器来采集不同种类的资源</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>框架</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>决定了整体的规模</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>空间压缩</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -459,6 +439,290 @@
   </si>
   <si>
     <t>外层有气态氢；中层有液态甲烷海或者金属氢；地心有地心熔浆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>星球类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>产出资源</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中子星</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中子素</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>等离子熔浆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>存储要求</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>银</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>金</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可以卖钱，可以用来制造较为高级的电路元件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可以卖很多钱，以及制作更高级的采集器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>决定了整体的规模、温度、储能、运动</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>比较值钱，可以用来制造比较初级的电路元件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>生物冷处理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>岩石</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>没啥用，基本算是杂志，也可以作为基础阻燃隔热材料</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>煤炭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高密度液体，温度极高，可以在部分发电姬中用于发电</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可以直接使用的燃料，热值可观，还原部分矿物</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可以作为燃料，热值一般，还原部分矿物</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用于底层物理学的合成，如人造黑洞等</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可以在部分发电姬，作为燃料发电</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>结构金属矿</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>结构金属</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可以组成其它材料的外壳或结构单元</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>静滞力场</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最基本的采集器可以采集相应硬度的资源，特殊采集器可以有特殊的效果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高密度合金</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用结构金属与地心熔浆制作，用于合成更高级的物品</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>量子计算核心</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>宏观计算核心</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>微型计算核心</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高级外壳模组</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>水滴外壳模组</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>初级外壳模组</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>稳定姬</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>坍缩姬</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>组装姬</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>熔炼姬</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在对黑洞进行操作时稳定黑洞用的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>制造黑洞</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>组装计算核心与外壳模组</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>将矿石熔炼为对应材料，无需额外还原剂</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>常规货舱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>常规的货舱，没啥黑科技；分等级，规模越大容量越大</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>人造黑洞货舱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用空间压缩技术，相同的空间，但是容量倍增</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用人造黑洞对货物进行可逆压缩，但是只能压缩对结构无要求的货物；分等级，低级的在存储时候会按比例发生损耗，最高级可以做到零损耗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>空间压缩货舱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>钻头采集器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用几个钻头进行采集，不分等级，但是分材质，能够采集硬度小等于自身的资源</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电弧采集器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用电弧进行采集，原理是爆破而不是融化，所以可以采集几乎所有对爆炸与高温不敏感的材料</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>人造黑洞采集器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用人造黑洞吞噬材料，完全不考虑条件，但是部分有结构性的材料吸收后会变成垃圾</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>液体采集器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可以快速采集液体，分等级，等级越高，能承受的温度越高</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>控制整个挖矿姬，暂时没想好做啥分级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>合成材料</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>生物质</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可以在生物质发电姬中发电或者解锁科技</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不能破坏结构性</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>标签</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>结构性</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>流体</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>流体、结构性</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>温度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>框架越大，能容纳的部件规模越大；根据容量分级；根据材料决定工作温度，只要框架本身没过热，其它部件都维持在常温</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>热动能发电姬</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>消耗产热燃料，转化为动能再转化为电能（烧开水Plus），发电给挖矿姬充能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>衰变发电姬</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>通过消耗衰变燃料发电</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -466,7 +730,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -482,13 +746,28 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -505,7 +784,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -514,6 +793,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -829,249 +1111,609 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4912986-EB11-4507-BDE3-909A68071087}">
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:K46"/>
   <sheetViews>
-    <sheetView zoomScale="250" zoomScaleNormal="250" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
+      <selection activeCell="J1" sqref="J1:J1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.875" customWidth="1"/>
-    <col min="5" max="5" width="5" customWidth="1"/>
+    <col min="1" max="1" width="14" customWidth="1"/>
+    <col min="2" max="2" width="53.125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="16.25" customWidth="1"/>
+    <col min="4" max="4" width="5.375" customWidth="1"/>
+    <col min="5" max="5" width="14.375" customWidth="1"/>
+    <col min="7" max="7" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.875" customWidth="1"/>
+    <col min="9" max="9" width="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="2" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:11" s="2" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C1" s="2" t="s">
+      <c r="B1" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H1" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="1">
+      <c r="E2" t="s">
+        <v>163</v>
+      </c>
+      <c r="F2" s="1">
         <v>0.3</v>
       </c>
-      <c r="C2">
+      <c r="G2">
         <v>2</v>
       </c>
-      <c r="D2">
+      <c r="H2">
         <v>100</v>
       </c>
-      <c r="E2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F2">
+      <c r="I2" t="s">
+        <v>9</v>
+      </c>
+      <c r="J2">
         <v>0</v>
       </c>
-      <c r="G2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="K2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>158</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="C3" t="s">
+        <v>160</v>
+      </c>
+      <c r="E3" t="s">
+        <v>164</v>
+      </c>
+      <c r="F3" s="1"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>113</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="F4" s="1"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>115</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="F5" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="G5">
+        <v>32</v>
+      </c>
+      <c r="H5">
+        <v>1500</v>
+      </c>
+      <c r="I5" t="s">
+        <v>10</v>
+      </c>
+      <c r="J5">
+        <v>1</v>
+      </c>
+      <c r="K5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>121</v>
+      </c>
+      <c r="F6" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="G6">
+        <v>128</v>
+      </c>
+      <c r="H6">
+        <v>4000</v>
+      </c>
+      <c r="I6" t="s">
+        <v>10</v>
+      </c>
+      <c r="J6">
+        <v>3</v>
+      </c>
+      <c r="K6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>3</v>
+      </c>
+      <c r="F7" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="G7">
+        <v>110</v>
+      </c>
+      <c r="H7">
+        <v>5000</v>
+      </c>
+      <c r="I7" t="s">
+        <v>10</v>
+      </c>
+      <c r="J7">
+        <v>3</v>
+      </c>
+      <c r="K7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="C3">
-        <v>32</v>
-      </c>
-      <c r="D3">
-        <v>1500</v>
-      </c>
-      <c r="E3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F3">
-        <v>1</v>
-      </c>
-      <c r="G3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="1">
-        <v>0.1</v>
-      </c>
-      <c r="C4">
-        <v>128</v>
-      </c>
-      <c r="D4">
-        <v>4000</v>
-      </c>
-      <c r="E4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F4">
-        <v>3</v>
-      </c>
-      <c r="G4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="C5">
-        <v>110</v>
-      </c>
-      <c r="D5">
-        <v>5000</v>
-      </c>
-      <c r="E5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F5">
-        <v>3</v>
-      </c>
-      <c r="G5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" s="1">
+      <c r="F8" s="1">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="C6">
+      <c r="G8">
         <v>800</v>
       </c>
-      <c r="D6">
+      <c r="H8">
         <v>80000</v>
       </c>
-      <c r="E6" t="s">
-        <v>14</v>
-      </c>
-      <c r="F6">
+      <c r="I8" t="s">
+        <v>11</v>
+      </c>
+      <c r="J8">
         <v>2</v>
       </c>
-      <c r="G6" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="C7">
+      <c r="K8" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>122</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="F9" s="1"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>106</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="F10" s="1"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>107</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="G11">
         <f>400*10000000/1000000</f>
         <v>4000</v>
       </c>
-      <c r="D7" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="E7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F7">
+      <c r="H11" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="I11" t="s">
+        <v>11</v>
+      </c>
+      <c r="J11">
         <v>2</v>
       </c>
-      <c r="G7" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8" s="1">
+      <c r="K11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>5</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="F12" s="1">
         <v>0.06</v>
       </c>
-      <c r="C8">
+      <c r="G12">
         <f>10000*10000000/1000000</f>
         <v>100000</v>
       </c>
-      <c r="D8">
+      <c r="H12">
         <v>1000000</v>
       </c>
-      <c r="E8" t="s">
-        <v>14</v>
-      </c>
-      <c r="F8">
+      <c r="I12" t="s">
+        <v>11</v>
+      </c>
+      <c r="J12">
         <v>5</v>
       </c>
-      <c r="G8" t="s">
+      <c r="K12" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>7</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="C13" t="s">
+        <v>112</v>
+      </c>
+      <c r="F13" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="G13">
+        <v>18</v>
+      </c>
+      <c r="H13">
+        <v>300</v>
+      </c>
+      <c r="I13" t="s">
+        <v>9</v>
+      </c>
+      <c r="J13">
+        <v>1</v>
+      </c>
+      <c r="K13" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="C14" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9" s="1">
-        <v>0.3</v>
-      </c>
-      <c r="C9">
-        <v>18</v>
-      </c>
-      <c r="D9">
-        <v>300</v>
-      </c>
-      <c r="E9" t="s">
+      <c r="D14">
+        <v>6000</v>
+      </c>
+      <c r="E14" t="s">
+        <v>163</v>
+      </c>
+      <c r="F14" s="1">
+        <v>0.9</v>
+      </c>
+      <c r="G14">
+        <v>5000</v>
+      </c>
+      <c r="H14">
+        <v>65000000</v>
+      </c>
+      <c r="I14" t="s">
         <v>12</v>
       </c>
-      <c r="F9">
+      <c r="J14">
         <v>1</v>
       </c>
-      <c r="G9" t="s">
+      <c r="K14" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>16</v>
-      </c>
-      <c r="B10" s="1">
-        <v>0.9</v>
-      </c>
-      <c r="C10">
-        <v>5000</v>
-      </c>
-      <c r="D10">
-        <v>65000000</v>
-      </c>
-      <c r="E10" t="s">
-        <v>15</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10" t="s">
-        <v>22</v>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>126</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="F15" s="1"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>104</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="D16">
+        <v>10000</v>
+      </c>
+      <c r="E16" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>103</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C17" t="s">
+        <v>124</v>
+      </c>
+      <c r="D17">
+        <v>50000</v>
+      </c>
+      <c r="E17" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>129</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="E19" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>130</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="E20" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>128</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="E21" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>133</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="E23" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>131</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="E24" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>132</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="E25" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>134</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="E27" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>135</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="E28" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>136</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="E29" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>137</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="E30" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>142</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="E32" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>147</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="E33" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>144</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="E34" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>148</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="E36" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>150</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="E37" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>152</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="E38" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>154</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="E39" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>44</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="E41" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>51</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="E43" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>167</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="E45" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>169</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="E46" t="s">
+        <v>162</v>
       </c>
     </row>
   </sheetData>
@@ -1095,66 +1737,66 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B4" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B5" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B6" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B7" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B8" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -1180,21 +1822,21 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C1" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C2">
         <v>3000</v>
@@ -1202,10 +1844,10 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B3" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C3">
         <v>10000</v>
@@ -1213,10 +1855,10 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B4" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C4">
         <v>50000</v>
@@ -1224,10 +1866,10 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B5" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C5">
         <v>100000</v>
@@ -1235,10 +1877,10 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B6" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C6">
         <v>5000</v>
@@ -1246,10 +1888,10 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B7" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C7">
         <v>3000000</v>
@@ -1257,10 +1899,10 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B8" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C8">
         <v>12000000</v>
@@ -1268,10 +1910,10 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="B9" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
     </row>
   </sheetData>
@@ -1285,7 +1927,7 @@
   <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1299,36 +1941,36 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C1" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="D1" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="E1" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="F1" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>56</v>
+        <v>110</v>
       </c>
       <c r="C2" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="D2" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="F2">
         <v>100</v>
@@ -1336,10 +1978,10 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C3" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="D3" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="F3">
         <v>1000</v>
@@ -1347,16 +1989,16 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C4" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="D4" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="F4">
         <v>500</v>
@@ -1364,10 +2006,10 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C5" t="s">
+        <v>77</v>
+      </c>
+      <c r="D5" t="s">
         <v>82</v>
-      </c>
-      <c r="D5" t="s">
-        <v>87</v>
       </c>
       <c r="F5">
         <v>1000</v>
@@ -1375,94 +2017,94 @@
     </row>
     <row r="6" spans="1:6" ht="28.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C7" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="D7" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C8" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="D8" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C9" t="s">
+        <v>83</v>
+      </c>
+      <c r="D9" t="s">
         <v>88</v>
-      </c>
-      <c r="D9" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C10" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="D10" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C11" t="s">
+        <v>84</v>
+      </c>
+      <c r="D11" t="s">
         <v>89</v>
       </c>
-      <c r="D11" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="12" spans="1:6" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>54</v>
+        <v>125</v>
       </c>
       <c r="C12" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="D12" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C13" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="D13" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C14" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="D14" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="57" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -1486,81 +2128,81 @@
   <sheetData>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="B2" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="B3" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="B15" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
     </row>
   </sheetData>
@@ -1571,39 +2213,61 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C64231FC-1A83-4CD7-8768-EAB4BD579858}">
-  <dimension ref="A2:B4"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="340" zoomScaleNormal="340" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="61.125" customWidth="1"/>
+    <col min="3" max="3" width="61.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>96</v>
+      </c>
+      <c r="C3" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>98</v>
+      </c>
+      <c r="B4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" t="s">
         <v>99</v>
       </c>
-      <c r="B2" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>101</v>
-      </c>
-      <c r="B3" t="s">
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+      <c r="B6" t="s">
         <v>103</v>
-      </c>
-      <c r="B4" t="s">
-        <v>104</v>
       </c>
     </row>
   </sheetData>

--- a/src/space-miner/SpaceMiner.xlsx
+++ b/src/space-miner/SpaceMiner.xlsx
@@ -1,24 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\WebProjects\river-minigames\src\space-miner\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Projects\WebProjects\river-minigames\src\space-miner\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{009E2E8D-E572-4626-AA07-EB5A34DB1213}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B2CAACC-CC1E-47CB-9C3B-4C81C07558ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{0477F18E-D85D-49BB-A7B7-1C00092F0BA4}"/>
+    <workbookView xWindow="17280" yWindow="915" windowWidth="28800" windowHeight="15435" xr2:uid="{0477F18E-D85D-49BB-A7B7-1C00092F0BA4}"/>
   </bookViews>
   <sheets>
-    <sheet name="资源" sheetId="1" r:id="rId1"/>
-    <sheet name="装置" sheetId="3" r:id="rId2"/>
-    <sheet name="技术" sheetId="2" r:id="rId3"/>
-    <sheet name="采矿姬" sheetId="4" r:id="rId4"/>
-    <sheet name="介绍" sheetId="5" r:id="rId5"/>
-    <sheet name="星球类型" sheetId="6" r:id="rId6"/>
+    <sheet name="物品" sheetId="1" r:id="rId1"/>
+    <sheet name="自然资源" sheetId="7" r:id="rId2"/>
+    <sheet name="装置" sheetId="3" r:id="rId3"/>
+    <sheet name="技术" sheetId="2" r:id="rId4"/>
+    <sheet name="采矿姬" sheetId="4" r:id="rId5"/>
+    <sheet name="介绍" sheetId="5" r:id="rId6"/>
+    <sheet name="星球类型" sheetId="6" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,11 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="171">
-  <si>
-    <t xml:space="preserve">资源类型 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="215">
   <si>
     <t>基础价值</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -55,10 +52,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>铜矿</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>金矿</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -67,10 +60,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>稀有度</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>木材</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -79,38 +68,14 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>地表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>浅表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>深表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>地心</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>地心熔浆</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>采掘等级</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>需求技术</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>无</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>密度分流</t>
   </si>
   <si>
@@ -146,10 +111,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>需求装置</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>装置名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -334,14 +295,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>预计每天开采价值</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>N/A</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>等级</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -590,10 +543,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>熔炼姬</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>在对黑洞进行操作时稳定黑洞用的</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -690,18 +639,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>结构性</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>流体</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>流体、结构性</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>温度</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -723,6 +660,247 @@
   </si>
   <si>
     <t>通过消耗衰变燃料发电</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>water</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>biomass</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rock</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>coal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>structium</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>structium_ore</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gold_ore</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>silver</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gold</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>diamond</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wood</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>core_lava</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>high_density_alloy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>neutron</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>plasma_lava</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>macro_cpu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>micro_cpu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>quantum_cpu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stablizing_machine</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>collapsing_machine</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>assembling_machine</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>normal_cargo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>space_folding_cargo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>drill_collector</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>arc_collector</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fluid_collector</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>main_control</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>frame</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>thermal_kinetic_dynamo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>decaying_dynamo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>流体、自然</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>流体、自然、结构性</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自然</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>silver_ore</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>银矿</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>钻石矿石</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自然、流体</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>primative_shell</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>advanced_shell</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>drop_shell</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>结构性、外壳</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>结构性、计算核心</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>结构性、机器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>结构性、挖矿姬部件、货舱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>结构性、挖矿姬部件、采集器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>结构性、挖矿姬部件、发电姬</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>结构性、挖矿姬部件、框架</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>结构性、挖矿姬部件、主控</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>black_hole_collector</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>black_hole_cargo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>丰度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>min</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>max</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>typ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>任何行星</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>注：
+【丰度】一次生成的量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>矿物处理姬</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ore_processing_machine</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -730,7 +908,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -747,8 +925,46 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <b/>
-      <sz val="11"/>
+      <sz val="20"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="20"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
       <color theme="0"/>
       <name val="等线"/>
       <family val="3"/>
@@ -770,11 +986,98 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="8">
     <border>
       <left/>
       <right/>
       <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
@@ -784,18 +1087,72 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1111,609 +1468,649 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4912986-EB11-4507-BDE3-909A68071087}">
-  <dimension ref="A1:K46"/>
+  <dimension ref="A1:F39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
-      <selection activeCell="J1" sqref="J1:J1048576"/>
+    <sheetView tabSelected="1" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14" customWidth="1"/>
-    <col min="2" max="2" width="53.125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="16.25" customWidth="1"/>
-    <col min="4" max="4" width="5.375" customWidth="1"/>
-    <col min="5" max="5" width="14.375" customWidth="1"/>
-    <col min="7" max="7" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.875" customWidth="1"/>
-    <col min="9" max="9" width="5" customWidth="1"/>
+    <col min="1" max="1" width="24.75" customWidth="1"/>
+    <col min="2" max="2" width="25.375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="53.125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="16.25" customWidth="1"/>
+    <col min="5" max="5" width="11.375" customWidth="1"/>
+    <col min="6" max="6" width="27.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="2" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C1" s="3" t="s">
+    <row r="1" spans="1:6" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>206</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="C2" s="5"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="C6" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="C7" s="5"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="C8" s="5"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="C9" s="5"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="6" t="s">
+        <v>191</v>
+      </c>
+      <c r="B10" s="4" t="s">
         <v>165</v>
       </c>
-      <c r="E1" s="3" t="s">
-        <v>161</v>
-      </c>
-      <c r="F1" s="3" t="s">
+      <c r="C10" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="B11" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E11" s="3">
+        <v>6000</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E12" s="3">
+        <v>10000</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="E13" s="3">
+        <v>50000</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="B15" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="F2" s="1">
-        <v>0.3</v>
-      </c>
-      <c r="G2">
-        <v>2</v>
-      </c>
-      <c r="H2">
-        <v>100</v>
-      </c>
-      <c r="I2" t="s">
-        <v>9</v>
-      </c>
-      <c r="J2">
-        <v>0</v>
-      </c>
-      <c r="K2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>158</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="C3" t="s">
-        <v>160</v>
-      </c>
-      <c r="E3" t="s">
+      <c r="C15" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+    </row>
+    <row r="16" spans="1:6" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="B16" s="4" t="s">
         <v>164</v>
       </c>
-      <c r="F3" s="1"/>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>113</v>
-      </c>
-      <c r="B4" s="2" t="s">
+      <c r="C16" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+    </row>
+    <row r="17" spans="1:6" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+    </row>
+    <row r="18" spans="1:6" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="F4" s="1"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+      <c r="B18" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="C18" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+    </row>
+    <row r="19" spans="1:6" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="6" t="s">
         <v>117</v>
       </c>
-      <c r="F5" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="G5">
-        <v>32</v>
-      </c>
-      <c r="H5">
-        <v>1500</v>
-      </c>
-      <c r="I5" t="s">
-        <v>10</v>
-      </c>
-      <c r="J5">
-        <v>1</v>
-      </c>
-      <c r="K5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
+      <c r="B19" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="6" t="s">
         <v>121</v>
       </c>
-      <c r="F6" s="1">
-        <v>0.1</v>
-      </c>
-      <c r="G6">
+      <c r="B22" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="6" t="s">
+        <v>213</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="C28" s="5" t="s">
         <v>128</v>
       </c>
-      <c r="H6">
-        <v>4000</v>
-      </c>
-      <c r="I6" t="s">
-        <v>10</v>
-      </c>
-      <c r="J6">
-        <v>3</v>
-      </c>
-      <c r="K6" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>3</v>
-      </c>
-      <c r="F7" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="G7">
-        <v>110</v>
-      </c>
-      <c r="H7">
-        <v>5000</v>
-      </c>
-      <c r="I7" t="s">
-        <v>10</v>
-      </c>
-      <c r="J7">
-        <v>3</v>
-      </c>
-      <c r="K7" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>4</v>
-      </c>
-      <c r="F8" s="1">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="G8">
-        <v>800</v>
-      </c>
-      <c r="H8">
-        <v>80000</v>
-      </c>
-      <c r="I8" t="s">
-        <v>11</v>
-      </c>
-      <c r="J8">
-        <v>2</v>
-      </c>
-      <c r="K8" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>122</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="F9" s="1"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>106</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="F10" s="1"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>107</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="G11">
-        <f>400*10000000/1000000</f>
-        <v>4000</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="I11" t="s">
-        <v>11</v>
-      </c>
-      <c r="J11">
-        <v>2</v>
-      </c>
-      <c r="K11" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>5</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="F12" s="1">
-        <v>0.06</v>
-      </c>
-      <c r="G12">
-        <f>10000*10000000/1000000</f>
-        <v>100000</v>
-      </c>
-      <c r="H12">
-        <v>1000000</v>
-      </c>
-      <c r="I12" t="s">
-        <v>11</v>
-      </c>
-      <c r="J12">
-        <v>5</v>
-      </c>
-      <c r="K12" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>7</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="C13" t="s">
-        <v>112</v>
-      </c>
-      <c r="F13" s="1">
-        <v>0.3</v>
-      </c>
-      <c r="G13">
-        <v>18</v>
-      </c>
-      <c r="H13">
-        <v>300</v>
-      </c>
-      <c r="I13" t="s">
-        <v>9</v>
-      </c>
-      <c r="J13">
-        <v>1</v>
-      </c>
-      <c r="K13" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>13</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="C14" t="s">
-        <v>19</v>
-      </c>
-      <c r="D14">
-        <v>6000</v>
-      </c>
-      <c r="E14" t="s">
-        <v>163</v>
-      </c>
-      <c r="F14" s="1">
-        <v>0.9</v>
-      </c>
-      <c r="G14">
-        <v>5000</v>
-      </c>
-      <c r="H14">
-        <v>65000000</v>
-      </c>
-      <c r="I14" t="s">
-        <v>12</v>
-      </c>
-      <c r="J14">
-        <v>1</v>
-      </c>
-      <c r="K14" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>126</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="F15" s="1"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>104</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="D16">
-        <v>10000</v>
-      </c>
-      <c r="E16" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>103</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="C17" t="s">
-        <v>124</v>
-      </c>
-      <c r="D17">
-        <v>50000</v>
-      </c>
-      <c r="E17" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="6" t="s">
         <v>129</v>
       </c>
-      <c r="B19" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="E19" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
+      <c r="B29" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="C29" s="5" t="s">
         <v>130</v>
       </c>
-      <c r="B20" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="E20" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>128</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="E21" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="D30" s="3"/>
+      <c r="E30" s="3"/>
+      <c r="F30" s="3" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="C31" s="5" t="s">
         <v>133</v>
       </c>
-      <c r="B23" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="E23" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
-        <v>131</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="E24" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
-        <v>132</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="E25" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
-        <v>134</v>
-      </c>
-      <c r="B27" s="2" t="s">
+      <c r="D31" s="3"/>
+      <c r="E31" s="3"/>
+      <c r="F31" s="3" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="D32" s="3"/>
+      <c r="E32" s="3"/>
+      <c r="F32" s="3" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="C33" s="5" t="s">
         <v>138</v>
       </c>
-      <c r="E27" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
-        <v>135</v>
-      </c>
-      <c r="B28" s="2" t="s">
+      <c r="D33" s="3"/>
+      <c r="E33" s="3"/>
+      <c r="F33" s="3" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="6" t="s">
         <v>139</v>
       </c>
-      <c r="E28" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
-        <v>136</v>
-      </c>
-      <c r="B29" s="2" t="s">
+      <c r="B34" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="C34" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="E29" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
-        <v>137</v>
-      </c>
-      <c r="B30" s="2" t="s">
+      <c r="D34" s="3"/>
+      <c r="E34" s="3"/>
+      <c r="F34" s="3" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="6" t="s">
         <v>141</v>
       </c>
-      <c r="E30" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
+      <c r="B35" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="C35" s="5" t="s">
         <v>142</v>
       </c>
-      <c r="B32" s="2" t="s">
+      <c r="D35" s="3"/>
+      <c r="E35" s="3"/>
+      <c r="F35" s="3" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="C36" s="5" t="s">
         <v>143</v>
       </c>
-      <c r="E32" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
-        <v>147</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="E33" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
-        <v>144</v>
-      </c>
-      <c r="B34" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="E34" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A36" t="s">
-        <v>148</v>
-      </c>
-      <c r="B36" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="E36" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A37" t="s">
+      <c r="D36" s="3"/>
+      <c r="E36" s="3"/>
+      <c r="F36" s="3" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="C37" s="5" t="s">
         <v>150</v>
       </c>
-      <c r="B37" s="2" t="s">
+      <c r="D37" s="3"/>
+      <c r="E37" s="3"/>
+      <c r="F37" s="3" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="6" t="s">
         <v>151</v>
       </c>
-      <c r="E37" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A38" t="s">
+      <c r="B38" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="C38" s="5" t="s">
         <v>152</v>
       </c>
-      <c r="B38" s="2" t="s">
+      <c r="D38" s="3"/>
+      <c r="E38" s="3"/>
+      <c r="F38" s="3" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="6" t="s">
         <v>153</v>
       </c>
-      <c r="E38" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A39" t="s">
+      <c r="B39" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="C39" s="5" t="s">
         <v>154</v>
       </c>
-      <c r="B39" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="E39" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A41" t="s">
-        <v>44</v>
-      </c>
-      <c r="B41" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="E41" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A43" t="s">
-        <v>51</v>
-      </c>
-      <c r="B43" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="E43" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A45" t="s">
-        <v>167</v>
-      </c>
-      <c r="B45" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="E45" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A46" t="s">
-        <v>169</v>
-      </c>
-      <c r="B46" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="E46" t="s">
-        <v>162</v>
+      <c r="D39" s="3"/>
+      <c r="E39" s="3"/>
+      <c r="F39" s="3" t="s">
+        <v>201</v>
       </c>
     </row>
   </sheetData>
@@ -1723,6 +2120,351 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D2C3D24-0C65-4627-AC96-70D5769E4326}">
+  <dimension ref="A1:L15"/>
+  <sheetViews>
+    <sheetView topLeftCell="A2" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="19.875" customWidth="1"/>
+    <col min="2" max="2" width="17.25" customWidth="1"/>
+    <col min="3" max="3" width="16" customWidth="1"/>
+    <col min="4" max="12" width="5.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="9" t="s">
+        <v>155</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>206</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="D1" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="14"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="13" t="s">
+        <v>207</v>
+      </c>
+      <c r="H1" s="14"/>
+      <c r="I1" s="15"/>
+      <c r="J1" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="K1" s="14"/>
+      <c r="L1" s="15"/>
+    </row>
+    <row r="2" spans="1:12" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="10"/>
+      <c r="B2" s="12"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="17" t="s">
+        <v>208</v>
+      </c>
+      <c r="E2" s="17" t="s">
+        <v>209</v>
+      </c>
+      <c r="F2" s="17" t="s">
+        <v>210</v>
+      </c>
+      <c r="G2" s="17" t="s">
+        <v>208</v>
+      </c>
+      <c r="H2" s="17" t="s">
+        <v>209</v>
+      </c>
+      <c r="I2" s="17" t="s">
+        <v>210</v>
+      </c>
+      <c r="J2" s="17" t="s">
+        <v>208</v>
+      </c>
+      <c r="K2" s="17" t="s">
+        <v>209</v>
+      </c>
+      <c r="L2" s="17" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="C3" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="D3" s="16"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="19"/>
+      <c r="G3" s="16"/>
+      <c r="H3" s="18"/>
+      <c r="I3" s="19"/>
+      <c r="J3" s="16"/>
+      <c r="K3" s="18"/>
+      <c r="L3" s="19"/>
+    </row>
+    <row r="4" spans="1:12" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="D4" s="16"/>
+      <c r="E4" s="18"/>
+      <c r="F4" s="19"/>
+      <c r="G4" s="16"/>
+      <c r="H4" s="18"/>
+      <c r="I4" s="19"/>
+      <c r="J4" s="16"/>
+      <c r="K4" s="18"/>
+      <c r="L4" s="19"/>
+    </row>
+    <row r="5" spans="1:12" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="D5" s="16"/>
+      <c r="E5" s="18"/>
+      <c r="F5" s="19"/>
+      <c r="G5" s="16"/>
+      <c r="H5" s="18"/>
+      <c r="I5" s="19"/>
+      <c r="J5" s="16"/>
+      <c r="K5" s="18"/>
+      <c r="L5" s="19"/>
+    </row>
+    <row r="6" spans="1:12" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="D6" s="16"/>
+      <c r="E6" s="18"/>
+      <c r="F6" s="19"/>
+      <c r="G6" s="16"/>
+      <c r="H6" s="18"/>
+      <c r="I6" s="19"/>
+      <c r="J6" s="16"/>
+      <c r="K6" s="18"/>
+      <c r="L6" s="19"/>
+    </row>
+    <row r="7" spans="1:12" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="D7" s="16"/>
+      <c r="E7" s="18"/>
+      <c r="F7" s="19"/>
+      <c r="G7" s="16"/>
+      <c r="H7" s="18"/>
+      <c r="I7" s="19"/>
+      <c r="J7" s="16"/>
+      <c r="K7" s="18"/>
+      <c r="L7" s="19"/>
+    </row>
+    <row r="8" spans="1:12" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="D8" s="16"/>
+      <c r="E8" s="18"/>
+      <c r="F8" s="19"/>
+      <c r="G8" s="16"/>
+      <c r="H8" s="18"/>
+      <c r="I8" s="19"/>
+      <c r="J8" s="16"/>
+      <c r="K8" s="18"/>
+      <c r="L8" s="19"/>
+    </row>
+    <row r="9" spans="1:12" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="D9" s="16"/>
+      <c r="E9" s="18"/>
+      <c r="F9" s="19"/>
+      <c r="G9" s="16"/>
+      <c r="H9" s="18"/>
+      <c r="I9" s="19"/>
+      <c r="J9" s="16"/>
+      <c r="K9" s="18"/>
+      <c r="L9" s="19"/>
+    </row>
+    <row r="10" spans="1:12" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="D10" s="16"/>
+      <c r="E10" s="18"/>
+      <c r="F10" s="19"/>
+      <c r="G10" s="16"/>
+      <c r="H10" s="18"/>
+      <c r="I10" s="19"/>
+      <c r="J10" s="16"/>
+      <c r="K10" s="18"/>
+      <c r="L10" s="19"/>
+    </row>
+    <row r="11" spans="1:12" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="6" t="s">
+        <v>191</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="D11" s="16"/>
+      <c r="E11" s="18"/>
+      <c r="F11" s="19"/>
+      <c r="G11" s="16"/>
+      <c r="H11" s="18"/>
+      <c r="I11" s="19"/>
+      <c r="J11" s="16"/>
+      <c r="K11" s="18"/>
+      <c r="L11" s="19"/>
+    </row>
+    <row r="12" spans="1:12" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="D12" s="16"/>
+      <c r="E12" s="18"/>
+      <c r="F12" s="19"/>
+      <c r="G12" s="16"/>
+      <c r="H12" s="18"/>
+      <c r="I12" s="19"/>
+      <c r="J12" s="16"/>
+      <c r="K12" s="18"/>
+      <c r="L12" s="19"/>
+    </row>
+    <row r="13" spans="1:12" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="D13" s="16"/>
+      <c r="E13" s="18"/>
+      <c r="F13" s="19"/>
+      <c r="G13" s="16"/>
+      <c r="H13" s="18"/>
+      <c r="I13" s="19"/>
+      <c r="J13" s="16"/>
+      <c r="K13" s="18"/>
+      <c r="L13" s="19"/>
+    </row>
+    <row r="14" spans="1:12" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="D14" s="16"/>
+      <c r="E14" s="18"/>
+      <c r="F14" s="19"/>
+      <c r="G14" s="16"/>
+      <c r="H14" s="18"/>
+      <c r="I14" s="19"/>
+      <c r="J14" s="16"/>
+      <c r="K14" s="18"/>
+      <c r="L14" s="19"/>
+    </row>
+    <row r="15" spans="1:12" ht="200.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="21" t="s">
+        <v>212</v>
+      </c>
+      <c r="B15" s="20"/>
+      <c r="C15" s="20"/>
+      <c r="D15" s="20"/>
+      <c r="E15" s="20"/>
+      <c r="F15" s="20"/>
+      <c r="G15" s="20"/>
+      <c r="H15" s="20"/>
+      <c r="I15" s="20"/>
+      <c r="J15" s="20"/>
+      <c r="K15" s="20"/>
+      <c r="L15" s="20"/>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="A15:L15"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:F1"/>
+    <mergeCell ref="G1:I1"/>
+    <mergeCell ref="J1:L1"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F25E562-3B2E-47BC-94A0-7D08B31C485B}">
   <dimension ref="A1:B8"/>
   <sheetViews>
@@ -1737,66 +2479,66 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="B1" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="B2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="B3" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="B4" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="B5" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="B6" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="B7" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="B8" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -1805,7 +2547,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8AEC6316-682C-4153-AE4F-FC6570DFFE09}">
   <dimension ref="A1:C9"/>
   <sheetViews>
@@ -1822,21 +2564,21 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="B1" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="C1" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="C2">
         <v>3000</v>
@@ -1844,10 +2586,10 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="C3">
         <v>10000</v>
@@ -1855,10 +2597,10 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="B4" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="C4">
         <v>50000</v>
@@ -1866,10 +2608,10 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="B5" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="C5">
         <v>100000</v>
@@ -1877,10 +2619,10 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="C6">
         <v>5000</v>
@@ -1888,10 +2630,10 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="B7" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="C7">
         <v>3000000</v>
@@ -1899,10 +2641,10 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="B8" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="C8">
         <v>12000000</v>
@@ -1910,10 +2652,10 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="B9" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -1922,7 +2664,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F49F806-BAE6-4FC0-B210-81199394050F}">
   <dimension ref="A1:F15"/>
   <sheetViews>
@@ -1933,7 +2675,7 @@
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="18.75" customWidth="1"/>
-    <col min="2" max="2" width="26.75" style="2" customWidth="1"/>
+    <col min="2" max="2" width="26.75" style="1" customWidth="1"/>
     <col min="3" max="3" width="9.625" customWidth="1"/>
     <col min="4" max="4" width="23.375" customWidth="1"/>
     <col min="5" max="5" width="13.625" customWidth="1"/>
@@ -1941,36 +2683,36 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>21</v>
+        <v>33</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>12</v>
       </c>
       <c r="C1" t="s">
-        <v>75</v>
+        <v>63</v>
       </c>
       <c r="D1" t="s">
-        <v>78</v>
+        <v>66</v>
       </c>
       <c r="E1" t="s">
-        <v>81</v>
+        <v>69</v>
       </c>
       <c r="F1" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>51</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>110</v>
+        <v>41</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>98</v>
       </c>
       <c r="C2" t="s">
-        <v>76</v>
+        <v>64</v>
       </c>
       <c r="D2" t="s">
-        <v>79</v>
+        <v>67</v>
       </c>
       <c r="F2">
         <v>100</v>
@@ -1978,10 +2720,10 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C3" t="s">
-        <v>77</v>
+        <v>65</v>
       </c>
       <c r="D3" t="s">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="F3">
         <v>1000</v>
@@ -1989,16 +2731,16 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>44</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>45</v>
+        <v>34</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>35</v>
       </c>
       <c r="C4" t="s">
-        <v>76</v>
+        <v>64</v>
       </c>
       <c r="D4" t="s">
-        <v>82</v>
+        <v>70</v>
       </c>
       <c r="F4">
         <v>500</v>
@@ -2006,10 +2748,10 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C5" t="s">
-        <v>77</v>
+        <v>65</v>
       </c>
       <c r="D5" t="s">
-        <v>82</v>
+        <v>70</v>
       </c>
       <c r="F5">
         <v>1000</v>
@@ -2017,94 +2759,94 @@
     </row>
     <row r="6" spans="1:6" ht="28.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>46</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>47</v>
+        <v>36</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>48</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>49</v>
+        <v>38</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>39</v>
       </c>
       <c r="C7" t="s">
-        <v>76</v>
+        <v>64</v>
       </c>
       <c r="D7" t="s">
-        <v>85</v>
+        <v>73</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C8" t="s">
-        <v>77</v>
+        <v>65</v>
       </c>
       <c r="D8" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C9" t="s">
-        <v>83</v>
+        <v>71</v>
       </c>
       <c r="D9" t="s">
-        <v>88</v>
+        <v>76</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C10" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="D10" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C11" t="s">
-        <v>84</v>
+        <v>72</v>
       </c>
       <c r="D11" t="s">
-        <v>89</v>
+        <v>77</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>50</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>125</v>
+        <v>40</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>113</v>
       </c>
       <c r="C12" t="s">
-        <v>76</v>
+        <v>64</v>
       </c>
       <c r="D12" t="s">
-        <v>90</v>
+        <v>78</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C13" t="s">
-        <v>77</v>
+        <v>65</v>
       </c>
       <c r="D13" t="s">
-        <v>91</v>
+        <v>79</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C14" t="s">
-        <v>83</v>
+        <v>71</v>
       </c>
       <c r="D14" t="s">
-        <v>92</v>
+        <v>80</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="57" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>54</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>55</v>
+        <v>44</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -2113,7 +2855,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB6EE9DC-92B0-4350-89A0-256D659583DB}">
   <dimension ref="A2:B15"/>
   <sheetViews>
@@ -2128,81 +2870,81 @@
   <sheetData>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="B2" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="B3" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="B15" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
     </row>
   </sheetData>
@@ -2211,7 +2953,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C64231FC-1A83-4CD7-8768-EAB4BD579858}">
   <dimension ref="A1:C6"/>
   <sheetViews>
@@ -2226,48 +2968,48 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="B1" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="C1" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="C2" t="s">
-        <v>95</v>
+        <v>83</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="C3" t="s">
-        <v>97</v>
+        <v>85</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="B4" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="C4" t="s">
-        <v>99</v>
+        <v>87</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="B6" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
     </row>
   </sheetData>

--- a/src/space-miner/SpaceMiner.xlsx
+++ b/src/space-miner/SpaceMiner.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Projects\WebProjects\river-minigames\src\space-miner\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\WebProjects\river-minigames\src\space-miner\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B2CAACC-CC1E-47CB-9C3B-4C81C07558ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12AC2272-3893-4719-AFDB-8024D7B82602}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17280" yWindow="915" windowWidth="28800" windowHeight="15435" xr2:uid="{0477F18E-D85D-49BB-A7B7-1C00092F0BA4}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="7" xr2:uid="{0477F18E-D85D-49BB-A7B7-1C00092F0BA4}"/>
   </bookViews>
   <sheets>
     <sheet name="物品" sheetId="1" r:id="rId1"/>
@@ -20,6 +20,7 @@
     <sheet name="采矿姬" sheetId="4" r:id="rId5"/>
     <sheet name="介绍" sheetId="5" r:id="rId6"/>
     <sheet name="星球类型" sheetId="6" r:id="rId7"/>
+    <sheet name="资源分布-类地行星" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -42,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="215">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="221">
   <si>
     <t>基础价值</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -901,6 +902,30 @@
   </si>
   <si>
     <t>ore_processing_machine</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>权重</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>含量指数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>珍惜资源</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>生成代码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>uranium_ore</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>铀矿</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -986,7 +1011,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -1081,13 +1106,33 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1115,6 +1160,24 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1136,23 +1199,14 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1169,6 +1223,1084 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'资源分布-类地行星'!$N$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>含量指数</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="5"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="6"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="7"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="8"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="9"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="80000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="10"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="80000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="zh-CN"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="inEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="1"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="1"/>
+            <c:leaderLines>
+              <c:spPr>
+                <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="35000"/>
+                      <a:lumOff val="65000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:round/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:leaderLines>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'资源分布-类地行星'!$A$2:$A$12</c:f>
+              <c:strCache>
+                <c:ptCount val="11"/>
+                <c:pt idx="1">
+                  <c:v>水</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>木材</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>生物质</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>岩石</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>煤炭</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>结构金属矿</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>银矿</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>金矿</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>铀矿</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>地心熔浆</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'资源分布-类地行星'!$N$2:$N$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>35000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>37500</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-7885-44E9-BD2C-F465B8E42ECD}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="inEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="1"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="13">
+  <a:schemeClr val="accent6"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent4"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1395413</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>171451</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="图表 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{75D0B4AE-BD4D-D8B2-3A3D-3BF32BF4EEF0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1470,7 +2602,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4912986-EB11-4507-BDE3-909A68071087}">
   <dimension ref="A1:F39"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
+    <sheetView zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="B28" sqref="B28"/>
     </sheetView>
@@ -2123,8 +3255,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D2C3D24-0C65-4627-AC96-70D5769E4326}">
   <dimension ref="A1:L15"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D6" sqref="A1:L15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2136,60 +3268,60 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="15" t="s">
         <v>155</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="17" t="s">
         <v>206</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="15" t="s">
         <v>88</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="D1" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="14"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="13" t="s">
+      <c r="E1" s="20"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="19" t="s">
         <v>207</v>
       </c>
-      <c r="H1" s="14"/>
-      <c r="I1" s="15"/>
-      <c r="J1" s="13" t="s">
+      <c r="H1" s="20"/>
+      <c r="I1" s="21"/>
+      <c r="J1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="K1" s="14"/>
-      <c r="L1" s="15"/>
+      <c r="K1" s="20"/>
+      <c r="L1" s="21"/>
     </row>
     <row r="2" spans="1:12" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="10"/>
-      <c r="B2" s="12"/>
-      <c r="C2" s="10"/>
-      <c r="D2" s="17" t="s">
+      <c r="A2" s="16"/>
+      <c r="B2" s="18"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="10" t="s">
         <v>208</v>
       </c>
-      <c r="E2" s="17" t="s">
+      <c r="E2" s="10" t="s">
         <v>209</v>
       </c>
-      <c r="F2" s="17" t="s">
+      <c r="F2" s="10" t="s">
         <v>210</v>
       </c>
-      <c r="G2" s="17" t="s">
+      <c r="G2" s="10" t="s">
         <v>208</v>
       </c>
-      <c r="H2" s="17" t="s">
+      <c r="H2" s="10" t="s">
         <v>209</v>
       </c>
-      <c r="I2" s="17" t="s">
+      <c r="I2" s="10" t="s">
         <v>210</v>
       </c>
-      <c r="J2" s="17" t="s">
+      <c r="J2" s="10" t="s">
         <v>208</v>
       </c>
-      <c r="K2" s="17" t="s">
+      <c r="K2" s="10" t="s">
         <v>209</v>
       </c>
-      <c r="L2" s="17" t="s">
+      <c r="L2" s="10" t="s">
         <v>210</v>
       </c>
     </row>
@@ -2200,18 +3332,18 @@
       <c r="B3" s="4" t="s">
         <v>156</v>
       </c>
-      <c r="C3" s="16" t="s">
+      <c r="C3" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="D3" s="16"/>
-      <c r="E3" s="18"/>
-      <c r="F3" s="19"/>
-      <c r="G3" s="16"/>
-      <c r="H3" s="18"/>
-      <c r="I3" s="19"/>
-      <c r="J3" s="16"/>
-      <c r="K3" s="18"/>
-      <c r="L3" s="19"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="12"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="11"/>
+      <c r="I3" s="12"/>
+      <c r="J3" s="9"/>
+      <c r="K3" s="11"/>
+      <c r="L3" s="12"/>
     </row>
     <row r="4" spans="1:12" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
@@ -2223,15 +3355,15 @@
       <c r="C4" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="D4" s="16"/>
-      <c r="E4" s="18"/>
-      <c r="F4" s="19"/>
-      <c r="G4" s="16"/>
-      <c r="H4" s="18"/>
-      <c r="I4" s="19"/>
-      <c r="J4" s="16"/>
-      <c r="K4" s="18"/>
-      <c r="L4" s="19"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="12"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="11"/>
+      <c r="I4" s="12"/>
+      <c r="J4" s="9"/>
+      <c r="K4" s="11"/>
+      <c r="L4" s="12"/>
     </row>
     <row r="5" spans="1:12" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
@@ -2243,15 +3375,15 @@
       <c r="C5" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="D5" s="16"/>
-      <c r="E5" s="18"/>
-      <c r="F5" s="19"/>
-      <c r="G5" s="16"/>
-      <c r="H5" s="18"/>
-      <c r="I5" s="19"/>
-      <c r="J5" s="16"/>
-      <c r="K5" s="18"/>
-      <c r="L5" s="19"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="12"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="11"/>
+      <c r="I5" s="12"/>
+      <c r="J5" s="9"/>
+      <c r="K5" s="11"/>
+      <c r="L5" s="12"/>
     </row>
     <row r="6" spans="1:12" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
@@ -2263,15 +3395,15 @@
       <c r="C6" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="D6" s="16"/>
-      <c r="E6" s="18"/>
-      <c r="F6" s="19"/>
-      <c r="G6" s="16"/>
-      <c r="H6" s="18"/>
-      <c r="I6" s="19"/>
-      <c r="J6" s="16"/>
-      <c r="K6" s="18"/>
-      <c r="L6" s="19"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="11"/>
+      <c r="I6" s="12"/>
+      <c r="J6" s="9"/>
+      <c r="K6" s="11"/>
+      <c r="L6" s="12"/>
     </row>
     <row r="7" spans="1:12" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="6" t="s">
@@ -2283,15 +3415,15 @@
       <c r="C7" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="D7" s="16"/>
-      <c r="E7" s="18"/>
-      <c r="F7" s="19"/>
-      <c r="G7" s="16"/>
-      <c r="H7" s="18"/>
-      <c r="I7" s="19"/>
-      <c r="J7" s="16"/>
-      <c r="K7" s="18"/>
-      <c r="L7" s="19"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="11"/>
+      <c r="I7" s="12"/>
+      <c r="J7" s="9"/>
+      <c r="K7" s="11"/>
+      <c r="L7" s="12"/>
     </row>
     <row r="8" spans="1:12" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
@@ -2303,15 +3435,15 @@
       <c r="C8" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="D8" s="16"/>
-      <c r="E8" s="18"/>
-      <c r="F8" s="19"/>
-      <c r="G8" s="16"/>
-      <c r="H8" s="18"/>
-      <c r="I8" s="19"/>
-      <c r="J8" s="16"/>
-      <c r="K8" s="18"/>
-      <c r="L8" s="19"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="11"/>
+      <c r="I8" s="12"/>
+      <c r="J8" s="9"/>
+      <c r="K8" s="11"/>
+      <c r="L8" s="12"/>
     </row>
     <row r="9" spans="1:12" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="6" t="s">
@@ -2323,15 +3455,15 @@
       <c r="C9" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="D9" s="16"/>
-      <c r="E9" s="18"/>
-      <c r="F9" s="19"/>
-      <c r="G9" s="16"/>
-      <c r="H9" s="18"/>
-      <c r="I9" s="19"/>
-      <c r="J9" s="16"/>
-      <c r="K9" s="18"/>
-      <c r="L9" s="19"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="12"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="11"/>
+      <c r="I9" s="12"/>
+      <c r="J9" s="9"/>
+      <c r="K9" s="11"/>
+      <c r="L9" s="12"/>
     </row>
     <row r="10" spans="1:12" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="6" t="s">
@@ -2343,15 +3475,15 @@
       <c r="C10" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="D10" s="16"/>
-      <c r="E10" s="18"/>
-      <c r="F10" s="19"/>
-      <c r="G10" s="16"/>
-      <c r="H10" s="18"/>
-      <c r="I10" s="19"/>
-      <c r="J10" s="16"/>
-      <c r="K10" s="18"/>
-      <c r="L10" s="19"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="12"/>
+      <c r="G10" s="9"/>
+      <c r="H10" s="11"/>
+      <c r="I10" s="12"/>
+      <c r="J10" s="9"/>
+      <c r="K10" s="11"/>
+      <c r="L10" s="12"/>
     </row>
     <row r="11" spans="1:12" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="6" t="s">
@@ -2363,15 +3495,15 @@
       <c r="C11" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="D11" s="16"/>
-      <c r="E11" s="18"/>
-      <c r="F11" s="19"/>
-      <c r="G11" s="16"/>
-      <c r="H11" s="18"/>
-      <c r="I11" s="19"/>
-      <c r="J11" s="16"/>
-      <c r="K11" s="18"/>
-      <c r="L11" s="19"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="11"/>
+      <c r="F11" s="12"/>
+      <c r="G11" s="9"/>
+      <c r="H11" s="11"/>
+      <c r="I11" s="12"/>
+      <c r="J11" s="9"/>
+      <c r="K11" s="11"/>
+      <c r="L11" s="12"/>
     </row>
     <row r="12" spans="1:12" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="6" t="s">
@@ -2383,15 +3515,15 @@
       <c r="C12" s="3" t="s">
         <v>211</v>
       </c>
-      <c r="D12" s="16"/>
-      <c r="E12" s="18"/>
-      <c r="F12" s="19"/>
-      <c r="G12" s="16"/>
-      <c r="H12" s="18"/>
-      <c r="I12" s="19"/>
-      <c r="J12" s="16"/>
-      <c r="K12" s="18"/>
-      <c r="L12" s="19"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="12"/>
+      <c r="G12" s="9"/>
+      <c r="H12" s="11"/>
+      <c r="I12" s="12"/>
+      <c r="J12" s="9"/>
+      <c r="K12" s="11"/>
+      <c r="L12" s="12"/>
     </row>
     <row r="13" spans="1:12" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="6" t="s">
@@ -2403,15 +3535,15 @@
       <c r="C13" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="D13" s="16"/>
-      <c r="E13" s="18"/>
-      <c r="F13" s="19"/>
-      <c r="G13" s="16"/>
-      <c r="H13" s="18"/>
-      <c r="I13" s="19"/>
-      <c r="J13" s="16"/>
-      <c r="K13" s="18"/>
-      <c r="L13" s="19"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="12"/>
+      <c r="G13" s="9"/>
+      <c r="H13" s="11"/>
+      <c r="I13" s="12"/>
+      <c r="J13" s="9"/>
+      <c r="K13" s="11"/>
+      <c r="L13" s="12"/>
     </row>
     <row r="14" spans="1:12" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="6" t="s">
@@ -2423,31 +3555,31 @@
       <c r="C14" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="D14" s="16"/>
-      <c r="E14" s="18"/>
-      <c r="F14" s="19"/>
-      <c r="G14" s="16"/>
-      <c r="H14" s="18"/>
-      <c r="I14" s="19"/>
-      <c r="J14" s="16"/>
-      <c r="K14" s="18"/>
-      <c r="L14" s="19"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="12"/>
+      <c r="G14" s="9"/>
+      <c r="H14" s="11"/>
+      <c r="I14" s="12"/>
+      <c r="J14" s="9"/>
+      <c r="K14" s="11"/>
+      <c r="L14" s="12"/>
     </row>
     <row r="15" spans="1:12" ht="200.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="21" t="s">
+      <c r="A15" s="13" t="s">
         <v>212</v>
       </c>
-      <c r="B15" s="20"/>
-      <c r="C15" s="20"/>
-      <c r="D15" s="20"/>
-      <c r="E15" s="20"/>
-      <c r="F15" s="20"/>
-      <c r="G15" s="20"/>
-      <c r="H15" s="20"/>
-      <c r="I15" s="20"/>
-      <c r="J15" s="20"/>
-      <c r="K15" s="20"/>
-      <c r="L15" s="20"/>
+      <c r="B15" s="14"/>
+      <c r="C15" s="14"/>
+      <c r="D15" s="14"/>
+      <c r="E15" s="14"/>
+      <c r="F15" s="14"/>
+      <c r="G15" s="14"/>
+      <c r="H15" s="14"/>
+      <c r="I15" s="14"/>
+      <c r="J15" s="14"/>
+      <c r="K15" s="14"/>
+      <c r="L15" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -3016,4 +4148,517 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C790E29-734E-4E62-A60D-0CF095EA4886}">
+  <dimension ref="A1:O13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="21.75" customWidth="1"/>
+    <col min="2" max="2" width="18" customWidth="1"/>
+    <col min="14" max="14" width="15.875" customWidth="1"/>
+    <col min="15" max="15" width="33.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A1" s="15" t="s">
+        <v>155</v>
+      </c>
+      <c r="B1" s="17" t="s">
+        <v>206</v>
+      </c>
+      <c r="C1" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="20"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="15" t="s">
+        <v>215</v>
+      </c>
+      <c r="G1" s="19" t="s">
+        <v>207</v>
+      </c>
+      <c r="H1" s="20"/>
+      <c r="I1" s="21"/>
+      <c r="J1" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="K1" s="20"/>
+      <c r="L1" s="21"/>
+      <c r="M1" s="24" t="s">
+        <v>217</v>
+      </c>
+      <c r="N1" s="24" t="s">
+        <v>216</v>
+      </c>
+      <c r="O1" s="23" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A2" s="16"/>
+      <c r="B2" s="18"/>
+      <c r="C2" s="10" t="s">
+        <v>208</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>209</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>210</v>
+      </c>
+      <c r="F2" s="16"/>
+      <c r="G2" s="10" t="s">
+        <v>208</v>
+      </c>
+      <c r="H2" s="10" t="s">
+        <v>209</v>
+      </c>
+      <c r="I2" s="10" t="s">
+        <v>210</v>
+      </c>
+      <c r="J2" s="10" t="s">
+        <v>208</v>
+      </c>
+      <c r="K2" s="10" t="s">
+        <v>209</v>
+      </c>
+      <c r="L2" s="10" t="s">
+        <v>210</v>
+      </c>
+      <c r="M2" s="24"/>
+      <c r="N2" s="24"/>
+      <c r="O2" s="23"/>
+    </row>
+    <row r="3" spans="1:15" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="A3" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="C3" s="9"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="12"/>
+      <c r="F3" s="11">
+        <v>100</v>
+      </c>
+      <c r="G3" s="9">
+        <f>I3-50</f>
+        <v>50</v>
+      </c>
+      <c r="H3" s="11">
+        <f>I3+50</f>
+        <v>150</v>
+      </c>
+      <c r="I3" s="12">
+        <v>100</v>
+      </c>
+      <c r="J3" s="9"/>
+      <c r="K3" s="11"/>
+      <c r="L3" s="12"/>
+      <c r="M3" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="N3" s="3">
+        <f>IF(M3,F3*I3,0)</f>
+        <v>0</v>
+      </c>
+      <c r="O3" t="str">
+        <f>"{type:ResourceTypes."&amp;UPPER(B3)&amp;",weight:"&amp;F3&amp;",veinSize:() =&gt; rand("&amp;G3&amp;","&amp;H3&amp;")},"</f>
+        <v>{type:ResourceTypes.WATER,weight:100,veinSize:() =&gt; rand(50,150)},</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="A4" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="C4" s="9"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="11">
+        <v>1</v>
+      </c>
+      <c r="G4" s="9">
+        <f t="shared" ref="G4:G12" si="0">I4-50</f>
+        <v>150</v>
+      </c>
+      <c r="H4" s="11">
+        <f t="shared" ref="H4:H12" si="1">I4+50</f>
+        <v>250</v>
+      </c>
+      <c r="I4" s="12">
+        <v>200</v>
+      </c>
+      <c r="J4" s="9"/>
+      <c r="K4" s="11"/>
+      <c r="L4" s="12"/>
+      <c r="M4" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="N4" s="3">
+        <f t="shared" ref="N4:N12" si="2">IF(M4,F4*I4,0)</f>
+        <v>0</v>
+      </c>
+      <c r="O4" t="str">
+        <f t="shared" ref="O4:O12" si="3">"{type:ResourceTypes."&amp;UPPER(B4)&amp;",weight:"&amp;F4&amp;",veinSize:() =&gt; rand("&amp;G4&amp;","&amp;H4&amp;")},"</f>
+        <v>{type:ResourceTypes.WOOD,weight:1,veinSize:() =&gt; rand(150,250)},</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="A5" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="C5" s="9"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="12"/>
+      <c r="F5" s="11">
+        <v>10</v>
+      </c>
+      <c r="G5" s="9">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="H5" s="11">
+        <f t="shared" si="1"/>
+        <v>150</v>
+      </c>
+      <c r="I5" s="12">
+        <v>100</v>
+      </c>
+      <c r="J5" s="9"/>
+      <c r="K5" s="11"/>
+      <c r="L5" s="12"/>
+      <c r="M5" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="N5" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O5" t="str">
+        <f t="shared" si="3"/>
+        <v>{type:ResourceTypes.BIOMASS,weight:10,veinSize:() =&gt; rand(50,150)},</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="A6" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="C6" s="9"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="11">
+        <v>1000</v>
+      </c>
+      <c r="G6" s="9">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="H6" s="11">
+        <f t="shared" si="1"/>
+        <v>150</v>
+      </c>
+      <c r="I6" s="12">
+        <v>100</v>
+      </c>
+      <c r="J6" s="9"/>
+      <c r="K6" s="11"/>
+      <c r="L6" s="12"/>
+      <c r="M6" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="N6" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O6" t="str">
+        <f t="shared" si="3"/>
+        <v>{type:ResourceTypes.ROCK,weight:1000,veinSize:() =&gt; rand(50,150)},</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="A7" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="C7" s="9"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="11">
+        <v>70</v>
+      </c>
+      <c r="G7" s="9">
+        <f t="shared" si="0"/>
+        <v>450</v>
+      </c>
+      <c r="H7" s="11">
+        <f t="shared" si="1"/>
+        <v>550</v>
+      </c>
+      <c r="I7" s="12">
+        <v>500</v>
+      </c>
+      <c r="J7" s="9"/>
+      <c r="K7" s="11"/>
+      <c r="L7" s="12"/>
+      <c r="M7" s="12" t="b">
+        <v>1</v>
+      </c>
+      <c r="N7" s="3">
+        <f t="shared" si="2"/>
+        <v>35000</v>
+      </c>
+      <c r="O7" t="str">
+        <f t="shared" si="3"/>
+        <v>{type:ResourceTypes.COAL,weight:70,veinSize:() =&gt; rand(450,550)},</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="A8" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="C8" s="9"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="11">
+        <v>150</v>
+      </c>
+      <c r="G8" s="9">
+        <f t="shared" si="0"/>
+        <v>200</v>
+      </c>
+      <c r="H8" s="11">
+        <f t="shared" si="1"/>
+        <v>300</v>
+      </c>
+      <c r="I8" s="12">
+        <v>250</v>
+      </c>
+      <c r="J8" s="9"/>
+      <c r="K8" s="11"/>
+      <c r="L8" s="12"/>
+      <c r="M8" s="12" t="b">
+        <v>1</v>
+      </c>
+      <c r="N8" s="3">
+        <f t="shared" si="2"/>
+        <v>37500</v>
+      </c>
+      <c r="O8" t="str">
+        <f t="shared" si="3"/>
+        <v>{type:ResourceTypes.STRUCTIUM_ORE,weight:150,veinSize:() =&gt; rand(200,300)},</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="A9" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="C9" s="9"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="11">
+        <v>50</v>
+      </c>
+      <c r="G9" s="9">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="H9" s="11">
+        <f t="shared" si="1"/>
+        <v>150</v>
+      </c>
+      <c r="I9" s="12">
+        <v>100</v>
+      </c>
+      <c r="J9" s="9"/>
+      <c r="K9" s="11"/>
+      <c r="L9" s="12"/>
+      <c r="M9" s="12" t="b">
+        <v>1</v>
+      </c>
+      <c r="N9" s="3">
+        <f t="shared" si="2"/>
+        <v>5000</v>
+      </c>
+      <c r="O9" t="str">
+        <f t="shared" si="3"/>
+        <v>{type:ResourceTypes.SILVER_ORE,weight:50,veinSize:() =&gt; rand(50,150)},</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="A10" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="C10" s="9"/>
+      <c r="D10" s="11"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="11">
+        <v>30</v>
+      </c>
+      <c r="G10" s="9">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="H10" s="11">
+        <f t="shared" si="1"/>
+        <v>150</v>
+      </c>
+      <c r="I10" s="12">
+        <v>100</v>
+      </c>
+      <c r="J10" s="9"/>
+      <c r="K10" s="11"/>
+      <c r="L10" s="12"/>
+      <c r="M10" s="12" t="b">
+        <v>1</v>
+      </c>
+      <c r="N10" s="3">
+        <f t="shared" si="2"/>
+        <v>3000</v>
+      </c>
+      <c r="O10" t="str">
+        <f t="shared" si="3"/>
+        <v>{type:ResourceTypes.GOLD_ORE,weight:30,veinSize:() =&gt; rand(50,150)},</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="A11" s="6" t="s">
+        <v>220</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="C11" s="9"/>
+      <c r="D11" s="11"/>
+      <c r="E11" s="12"/>
+      <c r="F11" s="11">
+        <v>5</v>
+      </c>
+      <c r="G11" s="9">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="H11" s="11">
+        <f t="shared" si="1"/>
+        <v>150</v>
+      </c>
+      <c r="I11" s="12">
+        <v>100</v>
+      </c>
+      <c r="J11" s="9"/>
+      <c r="K11" s="11"/>
+      <c r="L11" s="12"/>
+      <c r="M11" s="12" t="b">
+        <v>1</v>
+      </c>
+      <c r="N11" s="3">
+        <f t="shared" si="2"/>
+        <v>500</v>
+      </c>
+      <c r="O11" t="str">
+        <f t="shared" si="3"/>
+        <v>{type:ResourceTypes.URANIUM_ORE,weight:5,veinSize:() =&gt; rand(50,150)},</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="A12" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="C12" s="9"/>
+      <c r="D12" s="11"/>
+      <c r="E12" s="12"/>
+      <c r="F12" s="11">
+        <v>1000</v>
+      </c>
+      <c r="G12" s="9">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="H12" s="11">
+        <f t="shared" si="1"/>
+        <v>150</v>
+      </c>
+      <c r="I12" s="12">
+        <v>100</v>
+      </c>
+      <c r="J12" s="9"/>
+      <c r="K12" s="11"/>
+      <c r="L12" s="12"/>
+      <c r="M12" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="N12" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O12" t="str">
+        <f t="shared" si="3"/>
+        <v>{type:ResourceTypes.CORE_LAVA,weight:1000,veinSize:() =&gt; rand(50,150)},</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" ht="20.25" x14ac:dyDescent="0.2">
+      <c r="A13" s="13" t="s">
+        <v>212</v>
+      </c>
+      <c r="B13" s="14"/>
+      <c r="C13" s="14"/>
+      <c r="D13" s="14"/>
+      <c r="E13" s="14"/>
+      <c r="F13" s="14"/>
+      <c r="G13" s="14"/>
+      <c r="H13" s="14"/>
+      <c r="I13" s="14"/>
+      <c r="J13" s="14"/>
+      <c r="K13" s="14"/>
+      <c r="L13" s="14"/>
+      <c r="M13" s="22"/>
+      <c r="N13" s="22"/>
+    </row>
+  </sheetData>
+  <mergeCells count="10">
+    <mergeCell ref="O1:O2"/>
+    <mergeCell ref="N1:N2"/>
+    <mergeCell ref="M1:M2"/>
+    <mergeCell ref="A13:L13"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="G1:I1"/>
+    <mergeCell ref="J1:L1"/>
+    <mergeCell ref="F1:F2"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/src/space-miner/SpaceMiner.xlsx
+++ b/src/space-miner/SpaceMiner.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\WebProjects\river-minigames\src\space-miner\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Projects\WebProjects\river-minigames\src\space-miner\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12AC2272-3893-4719-AFDB-8024D7B82602}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0642DF42-BB65-4BF8-A151-745F5A1B9E66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="7" xr2:uid="{0477F18E-D85D-49BB-A7B7-1C00092F0BA4}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="8" xr2:uid="{0477F18E-D85D-49BB-A7B7-1C00092F0BA4}"/>
   </bookViews>
   <sheets>
     <sheet name="物品" sheetId="1" r:id="rId1"/>
@@ -21,6 +21,7 @@
     <sheet name="介绍" sheetId="5" r:id="rId6"/>
     <sheet name="星球类型" sheetId="6" r:id="rId7"/>
     <sheet name="资源分布-类地行星" sheetId="8" r:id="rId8"/>
+    <sheet name="设施" sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -43,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="221">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="428" uniqueCount="259">
   <si>
     <t>基础价值</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -926,6 +927,156 @@
   </si>
   <si>
     <t>铀矿</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>构金矿</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>地壳</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>地心</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>地幔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>地表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>√</t>
+  </si>
+  <si>
+    <t>√</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>×</t>
+  </si>
+  <si>
+    <t>×</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设施名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>传统矿场</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用人力与能源挖掘资源，有概率发现遗物</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>矿井</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用挖矿姬挖掘对应资源，消耗能源，不能发现遗物</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>防卫系统</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>产生保卫力，用于进攻或防御</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>输入</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>输出</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>能量、劳动力</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>资源</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>保卫力</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>劳动力</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>能量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>劳工发电姬</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>太阳能发电姬</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用劳动力产生能源</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>平白产生能源</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>共振发电姬</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用共振水晶产能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>共振水晶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>制造原料</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>生产部</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>根据规定的合成表自动合成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>配方要求的资源</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>配方的输出</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取方法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>制造或购买</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -933,7 +1084,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -996,6 +1147,13 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="黑体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -1011,7 +1169,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -1126,13 +1284,35 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1172,6 +1352,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1199,14 +1382,32 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1279,7 +1480,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'资源分布-类地行星'!$N$1</c:f>
+              <c:f>'资源分布-类地行星'!$O$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1302,6 +1503,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-8653-4E46-B34C-E3CFBD54B7B9}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
@@ -1317,6 +1523,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-8653-4E46-B34C-E3CFBD54B7B9}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="2"/>
@@ -1332,6 +1543,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-8653-4E46-B34C-E3CFBD54B7B9}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="3"/>
@@ -1349,6 +1565,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-8653-4E46-B34C-E3CFBD54B7B9}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="4"/>
@@ -1366,6 +1587,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000009-8653-4E46-B34C-E3CFBD54B7B9}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="5"/>
@@ -1383,6 +1609,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000B-8653-4E46-B34C-E3CFBD54B7B9}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="6"/>
@@ -1401,6 +1632,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000D-8653-4E46-B34C-E3CFBD54B7B9}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="7"/>
@@ -1419,6 +1655,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000F-8653-4E46-B34C-E3CFBD54B7B9}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="8"/>
@@ -1437,6 +1678,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000011-8653-4E46-B34C-E3CFBD54B7B9}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="9"/>
@@ -1454,6 +1700,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000013-8653-4E46-B34C-E3CFBD54B7B9}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="10"/>
@@ -1471,6 +1722,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000015-8653-4E46-B34C-E3CFBD54B7B9}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dLbls>
             <c:spPr>
@@ -1549,7 +1805,7 @@
                   <c:v>煤炭</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>结构金属矿</c:v>
+                  <c:v>构金矿</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>银矿</c:v>
@@ -1568,7 +1824,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'资源分布-类地行星'!$N$2:$N$12</c:f>
+              <c:f>'资源分布-类地行星'!$O$2:$O$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -2267,15 +2523,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>1395413</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:colOff>1309688</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>171451</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:colOff>85726</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3268,35 +3524,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="16" t="s">
         <v>155</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="18" t="s">
         <v>206</v>
       </c>
-      <c r="C1" s="15" t="s">
+      <c r="C1" s="16" t="s">
         <v>88</v>
       </c>
-      <c r="D1" s="19" t="s">
+      <c r="D1" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="20"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="19" t="s">
+      <c r="E1" s="21"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="20" t="s">
         <v>207</v>
       </c>
-      <c r="H1" s="20"/>
-      <c r="I1" s="21"/>
-      <c r="J1" s="19" t="s">
+      <c r="H1" s="21"/>
+      <c r="I1" s="22"/>
+      <c r="J1" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="K1" s="20"/>
-      <c r="L1" s="21"/>
+      <c r="K1" s="21"/>
+      <c r="L1" s="22"/>
     </row>
     <row r="2" spans="1:12" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="16"/>
-      <c r="B2" s="18"/>
-      <c r="C2" s="16"/>
+      <c r="A2" s="17"/>
+      <c r="B2" s="19"/>
+      <c r="C2" s="17"/>
       <c r="D2" s="10" t="s">
         <v>208</v>
       </c>
@@ -3566,20 +3822,20 @@
       <c r="L14" s="12"/>
     </row>
     <row r="15" spans="1:12" ht="200.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="13" t="s">
+      <c r="A15" s="14" t="s">
         <v>212</v>
       </c>
-      <c r="B15" s="14"/>
-      <c r="C15" s="14"/>
-      <c r="D15" s="14"/>
-      <c r="E15" s="14"/>
-      <c r="F15" s="14"/>
-      <c r="G15" s="14"/>
-      <c r="H15" s="14"/>
-      <c r="I15" s="14"/>
-      <c r="J15" s="14"/>
-      <c r="K15" s="14"/>
-      <c r="L15" s="14"/>
+      <c r="B15" s="15"/>
+      <c r="C15" s="15"/>
+      <c r="D15" s="15"/>
+      <c r="E15" s="15"/>
+      <c r="F15" s="15"/>
+      <c r="G15" s="15"/>
+      <c r="H15" s="15"/>
+      <c r="I15" s="15"/>
+      <c r="J15" s="15"/>
+      <c r="K15" s="15"/>
+      <c r="L15" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -4152,513 +4408,753 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C790E29-734E-4E62-A60D-0CF095EA4886}">
-  <dimension ref="A1:O13"/>
+  <dimension ref="A1:P13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G41" sqref="G41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="21.75" customWidth="1"/>
     <col min="2" max="2" width="18" customWidth="1"/>
-    <col min="14" max="14" width="15.875" customWidth="1"/>
-    <col min="15" max="15" width="33.5" customWidth="1"/>
+    <col min="3" max="6" width="5.625" customWidth="1"/>
+    <col min="15" max="15" width="15.875" customWidth="1"/>
+    <col min="16" max="16" width="33.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A1" s="15" t="s">
+    <row r="1" spans="1:16" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A1" s="16" t="s">
         <v>155</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="18" t="s">
         <v>206</v>
       </c>
-      <c r="C1" s="19" t="s">
+      <c r="C1" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="20"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="15" t="s">
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="16" t="s">
         <v>215</v>
       </c>
-      <c r="G1" s="19" t="s">
+      <c r="H1" s="20" t="s">
         <v>207</v>
       </c>
-      <c r="H1" s="20"/>
       <c r="I1" s="21"/>
-      <c r="J1" s="19" t="s">
+      <c r="J1" s="22"/>
+      <c r="K1" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="K1" s="20"/>
       <c r="L1" s="21"/>
-      <c r="M1" s="24" t="s">
+      <c r="M1" s="22"/>
+      <c r="N1" s="24" t="s">
         <v>217</v>
       </c>
-      <c r="N1" s="24" t="s">
+      <c r="O1" s="24" t="s">
         <v>216</v>
       </c>
-      <c r="O1" s="23" t="s">
+      <c r="P1" s="23" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A2" s="16"/>
-      <c r="B2" s="18"/>
-      <c r="C2" s="10" t="s">
+    <row r="2" spans="1:16" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A2" s="17"/>
+      <c r="B2" s="19"/>
+      <c r="C2" s="28" t="s">
+        <v>223</v>
+      </c>
+      <c r="D2" s="28" t="s">
+        <v>224</v>
+      </c>
+      <c r="E2" s="28" t="s">
+        <v>222</v>
+      </c>
+      <c r="F2" s="28" t="s">
+        <v>225</v>
+      </c>
+      <c r="G2" s="17"/>
+      <c r="H2" s="10" t="s">
         <v>208</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="I2" s="10" t="s">
         <v>209</v>
       </c>
-      <c r="E2" s="10" t="s">
+      <c r="J2" s="10" t="s">
         <v>210</v>
       </c>
-      <c r="F2" s="16"/>
-      <c r="G2" s="10" t="s">
+      <c r="K2" s="10" t="s">
         <v>208</v>
       </c>
-      <c r="H2" s="10" t="s">
+      <c r="L2" s="10" t="s">
         <v>209</v>
       </c>
-      <c r="I2" s="10" t="s">
+      <c r="M2" s="10" t="s">
         <v>210</v>
       </c>
-      <c r="J2" s="10" t="s">
-        <v>208</v>
-      </c>
-      <c r="K2" s="10" t="s">
-        <v>209</v>
-      </c>
-      <c r="L2" s="10" t="s">
-        <v>210</v>
-      </c>
-      <c r="M2" s="24"/>
       <c r="N2" s="24"/>
-      <c r="O2" s="23"/>
-    </row>
-    <row r="3" spans="1:15" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="O2" s="24"/>
+      <c r="P2" s="23"/>
+    </row>
+    <row r="3" spans="1:16" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>156</v>
       </c>
-      <c r="C3" s="9"/>
-      <c r="D3" s="11"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="11">
+      <c r="C3" s="29" t="s">
+        <v>229</v>
+      </c>
+      <c r="D3" s="30" t="s">
+        <v>229</v>
+      </c>
+      <c r="E3" s="30" t="s">
+        <v>227</v>
+      </c>
+      <c r="F3" s="31" t="s">
+        <v>227</v>
+      </c>
+      <c r="G3" s="11">
         <v>100</v>
       </c>
-      <c r="G3" s="9">
-        <f>I3-50</f>
+      <c r="H3" s="9">
+        <f>J3-50</f>
         <v>50</v>
       </c>
-      <c r="H3" s="11">
-        <f>I3+50</f>
+      <c r="I3" s="11">
+        <f>J3+50</f>
         <v>150</v>
       </c>
-      <c r="I3" s="12">
+      <c r="J3" s="12">
         <v>100</v>
       </c>
-      <c r="J3" s="9"/>
-      <c r="K3" s="11"/>
-      <c r="L3" s="12"/>
-      <c r="M3" s="12" t="b">
+      <c r="K3" s="9"/>
+      <c r="L3" s="11"/>
+      <c r="M3" s="12"/>
+      <c r="N3" s="12" t="b">
         <v>0</v>
       </c>
-      <c r="N3" s="3">
-        <f>IF(M3,F3*I3,0)</f>
+      <c r="O3" s="3">
+        <f>IF(N3,G3*J3,0)</f>
         <v>0</v>
       </c>
-      <c r="O3" t="str">
-        <f>"{type:ResourceTypes."&amp;UPPER(B3)&amp;",weight:"&amp;F3&amp;",veinSize:() =&gt; rand("&amp;G3&amp;","&amp;H3&amp;")},"</f>
+      <c r="P3" t="str">
+        <f>"{type:ResourceTypes."&amp;UPPER(B3)&amp;",weight:"&amp;G3&amp;",veinSize:() =&gt; rand("&amp;H3&amp;","&amp;I3&amp;")},"</f>
         <v>{type:ResourceTypes.WATER,weight:100,veinSize:() =&gt; rand(50,150)},</v>
       </c>
     </row>
-    <row r="4" spans="1:15" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:16" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
         <v>4</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>166</v>
       </c>
-      <c r="C4" s="9"/>
-      <c r="D4" s="11"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="11">
+      <c r="C4" s="29" t="s">
+        <v>229</v>
+      </c>
+      <c r="D4" s="30" t="s">
+        <v>228</v>
+      </c>
+      <c r="E4" s="30" t="s">
+        <v>228</v>
+      </c>
+      <c r="F4" s="31" t="s">
+        <v>227</v>
+      </c>
+      <c r="G4" s="11">
         <v>1</v>
       </c>
-      <c r="G4" s="9">
-        <f t="shared" ref="G4:G12" si="0">I4-50</f>
+      <c r="H4" s="9">
+        <f t="shared" ref="H4:H12" si="0">J4-50</f>
         <v>150</v>
       </c>
-      <c r="H4" s="11">
-        <f t="shared" ref="H4:H12" si="1">I4+50</f>
+      <c r="I4" s="11">
+        <f t="shared" ref="I4:I12" si="1">J4+50</f>
         <v>250</v>
       </c>
-      <c r="I4" s="12">
+      <c r="J4" s="12">
         <v>200</v>
       </c>
-      <c r="J4" s="9"/>
-      <c r="K4" s="11"/>
-      <c r="L4" s="12"/>
-      <c r="M4" s="12" t="b">
+      <c r="K4" s="9"/>
+      <c r="L4" s="11"/>
+      <c r="M4" s="12"/>
+      <c r="N4" s="12" t="b">
         <v>0</v>
       </c>
-      <c r="N4" s="3">
-        <f t="shared" ref="N4:N12" si="2">IF(M4,F4*I4,0)</f>
+      <c r="O4" s="3">
+        <f t="shared" ref="O4:O12" si="2">IF(N4,G4*J4,0)</f>
         <v>0</v>
       </c>
-      <c r="O4" t="str">
-        <f t="shared" ref="O4:O12" si="3">"{type:ResourceTypes."&amp;UPPER(B4)&amp;",weight:"&amp;F4&amp;",veinSize:() =&gt; rand("&amp;G4&amp;","&amp;H4&amp;")},"</f>
+      <c r="P4" t="str">
+        <f t="shared" ref="P4:P12" si="3">"{type:ResourceTypes."&amp;UPPER(B4)&amp;",weight:"&amp;G4&amp;",veinSize:() =&gt; rand("&amp;H4&amp;","&amp;I4&amp;")},"</f>
         <v>{type:ResourceTypes.WOOD,weight:1,veinSize:() =&gt; rand(150,250)},</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
         <v>145</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>157</v>
       </c>
-      <c r="C5" s="9"/>
-      <c r="D5" s="11"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="11">
+      <c r="C5" s="29" t="s">
+        <v>229</v>
+      </c>
+      <c r="D5" s="30" t="s">
+        <v>228</v>
+      </c>
+      <c r="E5" s="30" t="s">
+        <v>228</v>
+      </c>
+      <c r="F5" s="31" t="s">
+        <v>227</v>
+      </c>
+      <c r="G5" s="11">
         <v>10</v>
       </c>
-      <c r="G5" s="9">
+      <c r="H5" s="9">
         <f t="shared" si="0"/>
         <v>50</v>
       </c>
-      <c r="H5" s="11">
+      <c r="I5" s="11">
         <f t="shared" si="1"/>
         <v>150</v>
       </c>
-      <c r="I5" s="12">
+      <c r="J5" s="12">
         <v>100</v>
       </c>
-      <c r="J5" s="9"/>
-      <c r="K5" s="11"/>
-      <c r="L5" s="12"/>
-      <c r="M5" s="12" t="b">
+      <c r="K5" s="9"/>
+      <c r="L5" s="11"/>
+      <c r="M5" s="12"/>
+      <c r="N5" s="12" t="b">
         <v>0</v>
       </c>
-      <c r="N5" s="3">
+      <c r="O5" s="3">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="O5" t="str">
+      <c r="P5" t="str">
         <f t="shared" si="3"/>
         <v>{type:ResourceTypes.BIOMASS,weight:10,veinSize:() =&gt; rand(50,150)},</v>
       </c>
     </row>
-    <row r="6" spans="1:15" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
         <v>101</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="C6" s="9"/>
-      <c r="D6" s="11"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="11">
+      <c r="C6" s="29" t="s">
+        <v>228</v>
+      </c>
+      <c r="D6" s="30" t="s">
+        <v>226</v>
+      </c>
+      <c r="E6" s="30" t="s">
+        <v>226</v>
+      </c>
+      <c r="F6" s="31" t="s">
+        <v>226</v>
+      </c>
+      <c r="G6" s="11">
         <v>1000</v>
       </c>
-      <c r="G6" s="9">
+      <c r="H6" s="9">
         <f t="shared" si="0"/>
         <v>50</v>
       </c>
-      <c r="H6" s="11">
+      <c r="I6" s="11">
         <f t="shared" si="1"/>
         <v>150</v>
       </c>
-      <c r="I6" s="12">
+      <c r="J6" s="12">
         <v>100</v>
       </c>
-      <c r="J6" s="9"/>
-      <c r="K6" s="11"/>
-      <c r="L6" s="12"/>
-      <c r="M6" s="12" t="b">
+      <c r="K6" s="9"/>
+      <c r="L6" s="11"/>
+      <c r="M6" s="12"/>
+      <c r="N6" s="12" t="b">
         <v>0</v>
       </c>
-      <c r="N6" s="3">
+      <c r="O6" s="3">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="O6" t="str">
+      <c r="P6" t="str">
         <f t="shared" si="3"/>
         <v>{type:ResourceTypes.ROCK,weight:1000,veinSize:() =&gt; rand(50,150)},</v>
       </c>
     </row>
-    <row r="7" spans="1:15" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A7" s="6" t="s">
         <v>103</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>159</v>
       </c>
-      <c r="C7" s="9"/>
-      <c r="D7" s="11"/>
-      <c r="E7" s="12"/>
-      <c r="F7" s="11">
+      <c r="C7" s="29" t="s">
+        <v>229</v>
+      </c>
+      <c r="D7" s="30" t="s">
+        <v>229</v>
+      </c>
+      <c r="E7" s="30" t="s">
+        <v>227</v>
+      </c>
+      <c r="F7" s="31" t="s">
+        <v>227</v>
+      </c>
+      <c r="G7" s="11">
         <v>70</v>
       </c>
-      <c r="G7" s="9">
+      <c r="H7" s="9">
         <f t="shared" si="0"/>
         <v>450</v>
       </c>
-      <c r="H7" s="11">
+      <c r="I7" s="11">
         <f t="shared" si="1"/>
         <v>550</v>
       </c>
-      <c r="I7" s="12">
+      <c r="J7" s="12">
         <v>500</v>
       </c>
-      <c r="J7" s="9"/>
-      <c r="K7" s="11"/>
-      <c r="L7" s="12"/>
-      <c r="M7" s="12" t="b">
+      <c r="K7" s="9"/>
+      <c r="L7" s="11"/>
+      <c r="M7" s="12"/>
+      <c r="N7" s="12" t="b">
         <v>1</v>
       </c>
-      <c r="N7" s="3">
+      <c r="O7" s="3">
         <f t="shared" si="2"/>
         <v>35000</v>
       </c>
-      <c r="O7" t="str">
+      <c r="P7" t="str">
         <f t="shared" si="3"/>
         <v>{type:ResourceTypes.COAL,weight:70,veinSize:() =&gt; rand(450,550)},</v>
       </c>
     </row>
-    <row r="8" spans="1:15" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:16" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
-        <v>109</v>
+        <v>221</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="C8" s="9"/>
-      <c r="D8" s="11"/>
-      <c r="E8" s="12"/>
-      <c r="F8" s="11">
+      <c r="C8" s="29" t="s">
+        <v>228</v>
+      </c>
+      <c r="D8" s="30" t="s">
+        <v>226</v>
+      </c>
+      <c r="E8" s="30" t="s">
+        <v>226</v>
+      </c>
+      <c r="F8" s="31" t="s">
+        <v>226</v>
+      </c>
+      <c r="G8" s="11">
         <v>150</v>
       </c>
-      <c r="G8" s="9">
+      <c r="H8" s="9">
         <f t="shared" si="0"/>
         <v>200</v>
       </c>
-      <c r="H8" s="11">
+      <c r="I8" s="11">
         <f t="shared" si="1"/>
         <v>300</v>
       </c>
-      <c r="I8" s="12">
+      <c r="J8" s="12">
         <v>250</v>
       </c>
-      <c r="J8" s="9"/>
-      <c r="K8" s="11"/>
-      <c r="L8" s="12"/>
-      <c r="M8" s="12" t="b">
+      <c r="K8" s="9"/>
+      <c r="L8" s="11"/>
+      <c r="M8" s="12"/>
+      <c r="N8" s="12" t="b">
         <v>1</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <f t="shared" si="2"/>
         <v>37500</v>
       </c>
-      <c r="O8" t="str">
+      <c r="P8" t="str">
         <f t="shared" si="3"/>
         <v>{type:ResourceTypes.STRUCTIUM_ORE,weight:150,veinSize:() =&gt; rand(200,300)},</v>
       </c>
     </row>
-    <row r="9" spans="1:15" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:16" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A9" s="6" t="s">
         <v>190</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>189</v>
       </c>
-      <c r="C9" s="9"/>
-      <c r="D9" s="11"/>
-      <c r="E9" s="12"/>
-      <c r="F9" s="11">
+      <c r="C9" s="29" t="s">
+        <v>228</v>
+      </c>
+      <c r="D9" s="30" t="s">
+        <v>226</v>
+      </c>
+      <c r="E9" s="30" t="s">
+        <v>226</v>
+      </c>
+      <c r="F9" s="31" t="s">
+        <v>226</v>
+      </c>
+      <c r="G9" s="11">
         <v>50</v>
       </c>
-      <c r="G9" s="9">
+      <c r="H9" s="9">
         <f t="shared" si="0"/>
         <v>50</v>
       </c>
-      <c r="H9" s="11">
+      <c r="I9" s="11">
         <f t="shared" si="1"/>
         <v>150</v>
       </c>
-      <c r="I9" s="12">
+      <c r="J9" s="12">
         <v>100</v>
       </c>
-      <c r="J9" s="9"/>
-      <c r="K9" s="11"/>
-      <c r="L9" s="12"/>
-      <c r="M9" s="12" t="b">
+      <c r="K9" s="9"/>
+      <c r="L9" s="11"/>
+      <c r="M9" s="12"/>
+      <c r="N9" s="12" t="b">
         <v>1</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <f t="shared" si="2"/>
         <v>5000</v>
       </c>
-      <c r="O9" t="str">
+      <c r="P9" t="str">
         <f t="shared" si="3"/>
         <v>{type:ResourceTypes.SILVER_ORE,weight:50,veinSize:() =&gt; rand(50,150)},</v>
       </c>
     </row>
-    <row r="10" spans="1:15" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:16" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A10" s="6" t="s">
         <v>2</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>162</v>
       </c>
-      <c r="C10" s="9"/>
-      <c r="D10" s="11"/>
-      <c r="E10" s="12"/>
-      <c r="F10" s="11">
+      <c r="C10" s="29" t="s">
+        <v>229</v>
+      </c>
+      <c r="D10" s="30" t="s">
+        <v>226</v>
+      </c>
+      <c r="E10" s="30" t="s">
+        <v>226</v>
+      </c>
+      <c r="F10" s="31" t="s">
+        <v>226</v>
+      </c>
+      <c r="G10" s="11">
         <v>30</v>
       </c>
-      <c r="G10" s="9">
+      <c r="H10" s="9">
         <f t="shared" si="0"/>
         <v>50</v>
       </c>
-      <c r="H10" s="11">
+      <c r="I10" s="11">
         <f t="shared" si="1"/>
         <v>150</v>
       </c>
-      <c r="I10" s="12">
+      <c r="J10" s="12">
         <v>100</v>
       </c>
-      <c r="J10" s="9"/>
-      <c r="K10" s="11"/>
-      <c r="L10" s="12"/>
-      <c r="M10" s="12" t="b">
+      <c r="K10" s="9"/>
+      <c r="L10" s="11"/>
+      <c r="M10" s="12"/>
+      <c r="N10" s="12" t="b">
         <v>1</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <f t="shared" si="2"/>
         <v>3000</v>
       </c>
-      <c r="O10" t="str">
+      <c r="P10" t="str">
         <f t="shared" si="3"/>
         <v>{type:ResourceTypes.GOLD_ORE,weight:30,veinSize:() =&gt; rand(50,150)},</v>
       </c>
     </row>
-    <row r="11" spans="1:15" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:16" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A11" s="6" t="s">
         <v>220</v>
       </c>
       <c r="B11" s="4" t="s">
         <v>219</v>
       </c>
-      <c r="C11" s="9"/>
-      <c r="D11" s="11"/>
-      <c r="E11" s="12"/>
-      <c r="F11" s="11">
+      <c r="C11" s="29" t="s">
+        <v>229</v>
+      </c>
+      <c r="D11" s="30" t="s">
+        <v>227</v>
+      </c>
+      <c r="E11" s="30" t="s">
+        <v>226</v>
+      </c>
+      <c r="F11" s="31" t="s">
+        <v>226</v>
+      </c>
+      <c r="G11" s="11">
         <v>5</v>
       </c>
-      <c r="G11" s="9">
+      <c r="H11" s="9">
         <f t="shared" si="0"/>
         <v>50</v>
       </c>
-      <c r="H11" s="11">
+      <c r="I11" s="11">
         <f t="shared" si="1"/>
         <v>150</v>
       </c>
-      <c r="I11" s="12">
+      <c r="J11" s="12">
         <v>100</v>
       </c>
-      <c r="J11" s="9"/>
-      <c r="K11" s="11"/>
-      <c r="L11" s="12"/>
-      <c r="M11" s="12" t="b">
+      <c r="K11" s="9"/>
+      <c r="L11" s="11"/>
+      <c r="M11" s="12"/>
+      <c r="N11" s="12" t="b">
         <v>1</v>
       </c>
-      <c r="N11" s="3">
+      <c r="O11" s="3">
         <f t="shared" si="2"/>
         <v>500</v>
       </c>
-      <c r="O11" t="str">
+      <c r="P11" t="str">
         <f t="shared" si="3"/>
         <v>{type:ResourceTypes.URANIUM_ORE,weight:5,veinSize:() =&gt; rand(50,150)},</v>
       </c>
     </row>
-    <row r="12" spans="1:15" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:16" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A12" s="6" t="s">
         <v>6</v>
       </c>
       <c r="B12" s="4" t="s">
         <v>167</v>
       </c>
-      <c r="C12" s="9"/>
-      <c r="D12" s="11"/>
-      <c r="E12" s="12"/>
-      <c r="F12" s="11">
+      <c r="C12" s="29" t="s">
+        <v>227</v>
+      </c>
+      <c r="D12" s="30" t="s">
+        <v>229</v>
+      </c>
+      <c r="E12" s="30" t="s">
+        <v>228</v>
+      </c>
+      <c r="F12" s="31" t="s">
+        <v>228</v>
+      </c>
+      <c r="G12" s="11">
         <v>1000</v>
       </c>
-      <c r="G12" s="9">
+      <c r="H12" s="9">
         <f t="shared" si="0"/>
         <v>50</v>
       </c>
-      <c r="H12" s="11">
+      <c r="I12" s="11">
         <f t="shared" si="1"/>
         <v>150</v>
       </c>
-      <c r="I12" s="12">
+      <c r="J12" s="12">
         <v>100</v>
       </c>
-      <c r="J12" s="9"/>
-      <c r="K12" s="11"/>
-      <c r="L12" s="12"/>
-      <c r="M12" s="12" t="b">
+      <c r="K12" s="9"/>
+      <c r="L12" s="11"/>
+      <c r="M12" s="12"/>
+      <c r="N12" s="12" t="b">
         <v>0</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="O12" t="str">
+      <c r="P12" t="str">
         <f t="shared" si="3"/>
         <v>{type:ResourceTypes.CORE_LAVA,weight:1000,veinSize:() =&gt; rand(50,150)},</v>
       </c>
     </row>
-    <row r="13" spans="1:15" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="A13" s="13" t="s">
+    <row r="13" spans="1:16" ht="20.25" x14ac:dyDescent="0.2">
+      <c r="A13" s="14" t="s">
         <v>212</v>
       </c>
-      <c r="B13" s="14"/>
-      <c r="C13" s="14"/>
-      <c r="D13" s="14"/>
-      <c r="E13" s="14"/>
-      <c r="F13" s="14"/>
-      <c r="G13" s="14"/>
-      <c r="H13" s="14"/>
-      <c r="I13" s="14"/>
-      <c r="J13" s="14"/>
-      <c r="K13" s="14"/>
-      <c r="L13" s="14"/>
-      <c r="M13" s="22"/>
-      <c r="N13" s="22"/>
+      <c r="B13" s="15"/>
+      <c r="C13" s="15"/>
+      <c r="D13" s="15"/>
+      <c r="E13" s="15"/>
+      <c r="F13" s="15"/>
+      <c r="G13" s="15"/>
+      <c r="H13" s="15"/>
+      <c r="I13" s="15"/>
+      <c r="J13" s="15"/>
+      <c r="K13" s="15"/>
+      <c r="L13" s="15"/>
+      <c r="M13" s="15"/>
+      <c r="N13" s="13"/>
+      <c r="O13" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="P1:P2"/>
     <mergeCell ref="O1:O2"/>
     <mergeCell ref="N1:N2"/>
-    <mergeCell ref="M1:M2"/>
-    <mergeCell ref="A13:L13"/>
+    <mergeCell ref="A13:M13"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="G1:I1"/>
-    <mergeCell ref="J1:L1"/>
-    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="H1:J1"/>
+    <mergeCell ref="K1:M1"/>
+    <mergeCell ref="G1:G2"/>
+    <mergeCell ref="C1:F1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5BA35B7B-C12A-4C3C-8B8C-AD10E3F79291}">
+  <dimension ref="A1:F8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="13.375" customWidth="1"/>
+    <col min="2" max="2" width="47.625" customWidth="1"/>
+    <col min="3" max="3" width="14" customWidth="1"/>
+    <col min="4" max="4" width="11" customWidth="1"/>
+    <col min="5" max="5" width="21.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>230</v>
+      </c>
+      <c r="B1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" t="s">
+        <v>237</v>
+      </c>
+      <c r="D1" t="s">
+        <v>238</v>
+      </c>
+      <c r="E1" t="s">
+        <v>252</v>
+      </c>
+      <c r="F1" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>253</v>
+      </c>
+      <c r="B2" t="s">
+        <v>254</v>
+      </c>
+      <c r="C2" t="s">
+        <v>255</v>
+      </c>
+      <c r="D2" t="s">
+        <v>256</v>
+      </c>
+      <c r="F2" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>231</v>
+      </c>
+      <c r="B3" t="s">
+        <v>232</v>
+      </c>
+      <c r="C3" t="s">
+        <v>239</v>
+      </c>
+      <c r="D3" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>233</v>
+      </c>
+      <c r="B4" t="s">
+        <v>234</v>
+      </c>
+      <c r="C4" t="s">
+        <v>239</v>
+      </c>
+      <c r="D4" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>235</v>
+      </c>
+      <c r="B5" t="s">
+        <v>236</v>
+      </c>
+      <c r="C5" t="s">
+        <v>239</v>
+      </c>
+      <c r="D5" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>245</v>
+      </c>
+      <c r="B6" t="s">
+        <v>247</v>
+      </c>
+      <c r="C6" t="s">
+        <v>242</v>
+      </c>
+      <c r="D6" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>246</v>
+      </c>
+      <c r="B7" t="s">
+        <v>248</v>
+      </c>
+      <c r="C7" t="s">
+        <v>243</v>
+      </c>
+      <c r="D7" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>249</v>
+      </c>
+      <c r="B8" t="s">
+        <v>250</v>
+      </c>
+      <c r="C8" t="s">
+        <v>251</v>
+      </c>
+      <c r="D8" t="s">
+        <v>244</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>